--- a/data_month/zb/价格指数/农产品集贸市场价格/经济作物类集贸市场价格.xlsx
+++ b/data_month/zb/价格指数/农产品集贸市场价格/经济作物类集贸市场价格.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J229"/>
+  <dimension ref="A1:J164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,4690 +483,4690 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2003-01</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.7603513174404</v>
+        <v>59.3537414965986</v>
       </c>
       <c r="C2" t="n">
-        <v>4.11</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.242718446601941</v>
+        <v>24.4355909694555</v>
       </c>
       <c r="E2" t="n">
-        <v>4.7808764940239</v>
+        <v>8.505154639175251</v>
       </c>
       <c r="F2" t="n">
-        <v>2.24</v>
+        <v>4.21</v>
       </c>
       <c r="G2" t="n">
-        <v>8.737864077669929</v>
+        <v>0.959232613908867</v>
       </c>
       <c r="H2" t="n">
-        <v>2.69679300291546</v>
+        <v>29.4631710362047</v>
       </c>
       <c r="I2" t="n">
-        <v>5.02</v>
+        <v>10.37</v>
       </c>
       <c r="J2" t="n">
-        <v>8.18965517241379</v>
+        <v>2.26824457593686</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003-02</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.84076433121021</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>4.23</v>
+        <v>11.1</v>
       </c>
       <c r="D3" t="n">
-        <v>2.91970802919708</v>
+        <v>18.4631803628602</v>
       </c>
       <c r="E3" t="n">
-        <v>5.15873015873017</v>
+        <v>12.5</v>
       </c>
       <c r="F3" t="n">
-        <v>2.29</v>
+        <v>4.41</v>
       </c>
       <c r="G3" t="n">
-        <v>2.23214285714283</v>
+        <v>4.75059382422802</v>
       </c>
       <c r="H3" t="n">
-        <v>0.501432664756436</v>
+        <v>24.4212962962963</v>
       </c>
       <c r="I3" t="n">
-        <v>5.05</v>
+        <v>10.75</v>
       </c>
       <c r="J3" t="n">
-        <v>0.597609561752989</v>
+        <v>3.66441658630666</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2003-03</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.19284802043423</v>
+        <v>61.4307931570762</v>
       </c>
       <c r="C4" t="n">
-        <v>4.32</v>
+        <v>10.38</v>
       </c>
       <c r="D4" t="n">
-        <v>2.12765957446808</v>
+        <v>-6.48648648648647</v>
       </c>
       <c r="E4" t="n">
-        <v>6.74603174603175</v>
+        <v>12.5307125307125</v>
       </c>
       <c r="F4" t="n">
-        <v>2.14</v>
+        <v>4.58</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.55021834061135</v>
+        <v>3.8548752834467</v>
       </c>
       <c r="H4" t="n">
-        <v>-2.58560447239692</v>
+        <v>17.5324675324675</v>
       </c>
       <c r="I4" t="n">
-        <v>5.25</v>
+        <v>10.86</v>
       </c>
       <c r="J4" t="n">
-        <v>3.96039603960396</v>
+        <v>1.02325581395348</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003-04</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.13350125944582</v>
+        <v>32.2314049586777</v>
       </c>
       <c r="C5" t="n">
-        <v>4.38</v>
+        <v>6.4</v>
       </c>
       <c r="D5" t="n">
-        <v>1.38888888888889</v>
+        <v>-0.466562986003112</v>
       </c>
       <c r="E5" t="n">
-        <v>6.286836935167</v>
+        <v>-7.53424657534246</v>
       </c>
       <c r="F5" t="n">
-        <v>2.12</v>
+        <v>4.05</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.934579439252332</v>
+        <v>-0.491400491400512</v>
       </c>
       <c r="H5" t="n">
-        <v>-5.34979423868313</v>
+        <v>22.2791293213829</v>
       </c>
       <c r="I5" t="n">
-        <v>5.41</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>3.04761904761905</v>
+        <v>3.35497835497836</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2003-05</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.90355329949239</v>
+        <v>31.7171717171717</v>
       </c>
       <c r="C6" t="n">
-        <v>4.44</v>
+        <v>6.52</v>
       </c>
       <c r="D6" t="n">
-        <v>1.36986301369863</v>
+        <v>1.87499999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>3.34645669291338</v>
+        <v>-8.84955752212389</v>
       </c>
       <c r="F6" t="n">
-        <v>2.26</v>
+        <v>4.12</v>
       </c>
       <c r="G6" t="n">
-        <v>6.60377358490565</v>
+        <v>1.72839506172839</v>
       </c>
       <c r="H6" t="n">
-        <v>-7.89652825051054</v>
+        <v>26.8929503916449</v>
       </c>
       <c r="I6" t="n">
-        <v>5.54</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>2.40295748613678</v>
+        <v>1.78010471204189</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2003-06</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.08483290488431</v>
+        <v>26.8482490272373</v>
       </c>
       <c r="C7" t="n">
-        <v>4.34</v>
+        <v>6.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.25225225225226</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2.15264187866926</v>
+        <v>-7.97266514806377</v>
       </c>
       <c r="F7" t="n">
-        <v>2.28</v>
+        <v>4.04</v>
       </c>
       <c r="G7" t="n">
-        <v>0.884955752212392</v>
+        <v>-1.94174757281553</v>
       </c>
       <c r="H7" t="n">
-        <v>-10.2511880515954</v>
+        <v>31.5718157181572</v>
       </c>
       <c r="I7" t="n">
-        <v>5.6</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>1.08303249097472</v>
+        <v>-0.102880658436206</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2003-07</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.94117647058825</v>
+        <v>24.4360902255639</v>
       </c>
       <c r="C8" t="n">
-        <v>4.42</v>
+        <v>6.62</v>
       </c>
       <c r="D8" t="n">
-        <v>1.84331797235022</v>
+        <v>1.53374233128835</v>
       </c>
       <c r="E8" t="n">
-        <v>4.15841584158416</v>
+        <v>-4.40835266821344</v>
       </c>
       <c r="F8" t="n">
-        <v>2.36</v>
+        <v>4.12</v>
       </c>
       <c r="G8" t="n">
-        <v>3.50877192982458</v>
+        <v>1.98019801980197</v>
       </c>
       <c r="H8" t="n">
-        <v>-10.4081632653061</v>
+        <v>32.8804347826087</v>
       </c>
       <c r="I8" t="n">
-        <v>5.56</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.714285714285708</v>
+        <v>0.720906282183307</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2003-08</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.90114068441063</v>
+        <v>23.6794171220401</v>
       </c>
       <c r="C9" t="n">
-        <v>4.46</v>
+        <v>6.79</v>
       </c>
       <c r="D9" t="n">
-        <v>0.904977375565608</v>
+        <v>2.56797583081571</v>
       </c>
       <c r="E9" t="n">
-        <v>3.71819960861055</v>
+        <v>4.16666666666667</v>
       </c>
       <c r="F9" t="n">
-        <v>2.38</v>
+        <v>4.25</v>
       </c>
       <c r="G9" t="n">
-        <v>0.847457627118644</v>
+        <v>3.15533980582524</v>
       </c>
       <c r="H9" t="n">
-        <v>-9.91114149008887</v>
+        <v>31.1914323962517</v>
       </c>
       <c r="I9" t="n">
-        <v>5.65</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>1.61870503597123</v>
+        <v>0.204498977505125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2003-09</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.83251231527095</v>
+        <v>25.4578754578755</v>
       </c>
       <c r="C10" t="n">
-        <v>4.85</v>
+        <v>6.85</v>
       </c>
       <c r="D10" t="n">
-        <v>8.744394618834081</v>
+        <v>0.883652430044179</v>
       </c>
       <c r="E10" t="n">
-        <v>3.48837209302324</v>
+        <v>6.42673521850898</v>
       </c>
       <c r="F10" t="n">
-        <v>2.44</v>
+        <v>4.14</v>
       </c>
       <c r="G10" t="n">
-        <v>2.52100840336136</v>
+        <v>-2.58823529411765</v>
       </c>
       <c r="H10" t="n">
-        <v>-10.0207325501037</v>
+        <v>30.718085106383</v>
       </c>
       <c r="I10" t="n">
-        <v>5.67</v>
+        <v>9.83</v>
       </c>
       <c r="J10" t="n">
-        <v>0.353982300884951</v>
+        <v>0.306122448979579</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2003-10</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.58467243510508</v>
+        <v>23.6559139784946</v>
       </c>
       <c r="C11" t="n">
-        <v>5.9</v>
+        <v>6.9</v>
       </c>
       <c r="D11" t="n">
-        <v>21.6494845360825</v>
+        <v>0.7299270072992809</v>
       </c>
       <c r="E11" t="n">
-        <v>4.25531914893618</v>
+        <v>5.91259640102828</v>
       </c>
       <c r="F11" t="n">
-        <v>2.54</v>
+        <v>4.12</v>
       </c>
       <c r="G11" t="n">
-        <v>4.09836065573769</v>
+        <v>-0.483091787439605</v>
       </c>
       <c r="H11" t="n">
-        <v>-10</v>
+        <v>30.3311258278146</v>
       </c>
       <c r="I11" t="n">
-        <v>5.83</v>
+        <v>9.84</v>
       </c>
       <c r="J11" t="n">
-        <v>2.82186948853615</v>
+        <v>0.10172939979654</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2003-11</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.18237454100367</v>
+        <v>24.7311827956989</v>
       </c>
       <c r="C12" t="n">
-        <v>6.28</v>
+        <v>6.96</v>
       </c>
       <c r="D12" t="n">
-        <v>6.44067796610169</v>
+        <v>0.869565217391298</v>
       </c>
       <c r="E12" t="n">
-        <v>4.43159922928709</v>
+        <v>11.2565445026178</v>
       </c>
       <c r="F12" t="n">
-        <v>2.87</v>
+        <v>4.25</v>
       </c>
       <c r="G12" t="n">
-        <v>12.992125984252</v>
+        <v>3.15533980582524</v>
       </c>
       <c r="H12" t="n">
-        <v>-10.0498930862438</v>
+        <v>30.3030303030303</v>
       </c>
       <c r="I12" t="n">
-        <v>6.21</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="J12" t="n">
-        <v>6.5180102915952</v>
+        <v>0.50813008130082</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2003-12</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.05997552019583</v>
+        <v>33.9857651245551</v>
       </c>
       <c r="C13" t="n">
-        <v>5.88</v>
+        <v>7.53</v>
       </c>
       <c r="D13" t="n">
-        <v>-6.36942675159237</v>
+        <v>8.18965517241379</v>
       </c>
       <c r="E13" t="n">
-        <v>4.03846153846155</v>
+        <v>8.03108808290156</v>
       </c>
       <c r="F13" t="n">
-        <v>2.84</v>
+        <v>4.17</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.0452961672474</v>
+        <v>-1.88235294117646</v>
       </c>
       <c r="H13" t="n">
-        <v>-11.3086770981508</v>
+        <v>30.3341902313625</v>
       </c>
       <c r="I13" t="n">
-        <v>6.33</v>
+        <v>10.14</v>
       </c>
       <c r="J13" t="n">
-        <v>1.93236714975846</v>
+        <v>2.5278058645096</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2004-01</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>44.7688564476886</v>
+        <v>-5.44290288153681</v>
       </c>
       <c r="C14" t="n">
-        <v>5.95</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>1.19047619047619</v>
+        <v>-2.09944751381217</v>
       </c>
       <c r="E14" t="n">
-        <v>25.4464285714286</v>
+        <v>16.8646080760095</v>
       </c>
       <c r="F14" t="n">
-        <v>2.81</v>
+        <v>4.92</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.05633802816901</v>
+        <v>0.203665987780028</v>
       </c>
       <c r="H14" t="n">
-        <v>30.4780876494024</v>
+        <v>36.6441658630665</v>
       </c>
       <c r="I14" t="n">
-        <v>6.55</v>
+        <v>14.17</v>
       </c>
       <c r="J14" t="n">
-        <v>3.47551342812007</v>
+        <v>-2.20841959972395</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2004-02</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>41.6075650118203</v>
+        <v>-25.6756756756757</v>
       </c>
       <c r="C15" t="n">
-        <v>5.99</v>
+        <v>8.25</v>
       </c>
       <c r="D15" t="n">
-        <v>0.672268907563023</v>
+        <v>-6.88487584650113</v>
       </c>
       <c r="E15" t="n">
-        <v>20.9606986899563</v>
+        <v>11.1111111111111</v>
       </c>
       <c r="F15" t="n">
-        <v>2.77</v>
+        <v>4.9</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.42348754448399</v>
+        <v>-0.40650406504065</v>
       </c>
       <c r="H15" t="n">
-        <v>28.5148514851485</v>
+        <v>28.9302325581395</v>
       </c>
       <c r="I15" t="n">
-        <v>6.49</v>
+        <v>13.86</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.916030534351137</v>
+        <v>-2.1877205363444</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2004-03</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>40.5092592592593</v>
+        <v>-22.0616570327553</v>
       </c>
       <c r="C16" t="n">
-        <v>6.07</v>
+        <v>8.09</v>
       </c>
       <c r="D16" t="n">
-        <v>1.3355592654424</v>
+        <v>-1.93939393939394</v>
       </c>
       <c r="E16" t="n">
-        <v>30.3738317757009</v>
+        <v>13.5371179039301</v>
       </c>
       <c r="F16" t="n">
-        <v>2.79</v>
+        <v>5.2</v>
       </c>
       <c r="G16" t="n">
-        <v>0.72202166064983</v>
+        <v>6.12244897959184</v>
       </c>
       <c r="H16" t="n">
-        <v>26.2857142857143</v>
+        <v>24.6777163904236</v>
       </c>
       <c r="I16" t="n">
-        <v>6.63</v>
+        <v>13.54</v>
       </c>
       <c r="J16" t="n">
-        <v>2.15716486902926</v>
+        <v>-2.30880230880231</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2004-04</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>39.9543378995434</v>
+        <v>59.375</v>
       </c>
       <c r="C17" t="n">
-        <v>6.13</v>
+        <v>10.2</v>
       </c>
       <c r="D17" t="n">
-        <v>0.988467874794054</v>
+        <v>-1.73410404624279</v>
       </c>
       <c r="E17" t="n">
-        <v>35.8490566037736</v>
+        <v>10.6172839506173</v>
       </c>
       <c r="F17" t="n">
-        <v>2.88</v>
+        <v>4.48</v>
       </c>
       <c r="G17" t="n">
-        <v>3.2258064516129</v>
+        <v>-2.18340611353712</v>
       </c>
       <c r="H17" t="n">
-        <v>24.5841035120148</v>
+        <v>14.6596858638743</v>
       </c>
       <c r="I17" t="n">
-        <v>6.74</v>
+        <v>10.95</v>
       </c>
       <c r="J17" t="n">
-        <v>1.65912518853695</v>
+        <v>0.828729281767963</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2004-05</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>36.4864864864865</v>
+        <v>60.4294478527608</v>
       </c>
       <c r="C18" t="n">
-        <v>6.06</v>
+        <v>10.46</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.14192495921696</v>
+        <v>2.54901960784315</v>
       </c>
       <c r="E18" t="n">
-        <v>25.6637168141593</v>
+        <v>10.4368932038835</v>
       </c>
       <c r="F18" t="n">
-        <v>2.84</v>
+        <v>4.55</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.3888888888889</v>
+        <v>1.56249999999997</v>
       </c>
       <c r="H18" t="n">
-        <v>22.5631768953069</v>
+        <v>13.6831275720165</v>
       </c>
       <c r="I18" t="n">
-        <v>6.79</v>
+        <v>11.05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7418397626112641</v>
+        <v>0.913242009132432</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2004-06</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>36.6359447004608</v>
+        <v>64.2638036809816</v>
       </c>
       <c r="C19" t="n">
-        <v>5.93</v>
+        <v>10.71</v>
       </c>
       <c r="D19" t="n">
-        <v>-2.14521452145215</v>
+        <v>2.39005736137668</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6842105263158</v>
+        <v>14.3564356435644</v>
       </c>
       <c r="F19" t="n">
-        <v>2.82</v>
+        <v>4.62</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.704225352112672</v>
+        <v>1.53846153846156</v>
       </c>
       <c r="H19" t="n">
-        <v>22.5</v>
+        <v>14.5211122554068</v>
       </c>
       <c r="I19" t="n">
-        <v>6.86</v>
+        <v>11.12</v>
       </c>
       <c r="J19" t="n">
-        <v>1.03092783505154</v>
+        <v>0.633484162895897</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2004-07</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>30.0904977375566</v>
+        <v>58.6102719033233</v>
       </c>
       <c r="C20" t="n">
-        <v>5.75</v>
+        <v>10.5</v>
       </c>
       <c r="D20" t="n">
-        <v>-3.03541315345699</v>
+        <v>-1.9607843137255</v>
       </c>
       <c r="E20" t="n">
-        <v>22.8813559322034</v>
+        <v>13.3495145631068</v>
       </c>
       <c r="F20" t="n">
-        <v>2.9</v>
+        <v>4.67</v>
       </c>
       <c r="G20" t="n">
-        <v>2.83687943262412</v>
+        <v>1.08225108225109</v>
       </c>
       <c r="H20" t="n">
-        <v>23.3812949640288</v>
+        <v>17.6891615541922</v>
       </c>
       <c r="I20" t="n">
-        <v>6.86</v>
+        <v>11.51</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>3.50719424460433</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2004-08</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>26.9058295964126</v>
+        <v>47.1281296023564</v>
       </c>
       <c r="C21" t="n">
-        <v>5.66</v>
+        <v>9.99</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.56521739130434</v>
+        <v>-4.85714285714286</v>
       </c>
       <c r="E21" t="n">
-        <v>21.4285714285714</v>
+        <v>9.88235294117648</v>
       </c>
       <c r="F21" t="n">
-        <v>2.89</v>
+        <v>4.67</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.34482758620689</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>22.1238938053097</v>
+        <v>24.1836734693877</v>
       </c>
       <c r="I21" t="n">
-        <v>6.9</v>
+        <v>12.17</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5830903790087379</v>
+        <v>5.7341442224153</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2004-09</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.690721649484541</v>
+        <v>46.2773722627737</v>
       </c>
       <c r="C22" t="n">
-        <v>5.32</v>
+        <v>10.02</v>
       </c>
       <c r="D22" t="n">
-        <v>-6.00706713780919</v>
+        <v>0.300300300300307</v>
       </c>
       <c r="E22" t="n">
-        <v>19.672131147541</v>
+        <v>13.2850241545894</v>
       </c>
       <c r="F22" t="n">
-        <v>2.92</v>
+        <v>4.69</v>
       </c>
       <c r="G22" t="n">
-        <v>1.03806228373702</v>
+        <v>0.428265524625274</v>
       </c>
       <c r="H22" t="n">
-        <v>20.9876543209877</v>
+        <v>35.9104781281791</v>
       </c>
       <c r="I22" t="n">
-        <v>6.86</v>
+        <v>13.36</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.579710144927532</v>
+        <v>9.77814297452753</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2004-10</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-16.4406779661017</v>
+        <v>45.7971014492753</v>
       </c>
       <c r="C23" t="n">
-        <v>4.93</v>
+        <v>10.06</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.33082706766919</v>
+        <v>0.399201596806392</v>
       </c>
       <c r="E23" t="n">
-        <v>13.7795275590551</v>
+        <v>15.7766990291262</v>
       </c>
       <c r="F23" t="n">
-        <v>2.89</v>
+        <v>4.77</v>
       </c>
       <c r="G23" t="n">
-        <v>-1.02739726027397</v>
+        <v>1.7057569296375</v>
       </c>
       <c r="H23" t="n">
-        <v>17.4957118353345</v>
+        <v>42.7845528455285</v>
       </c>
       <c r="I23" t="n">
-        <v>6.85</v>
+        <v>14.05</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.145772594752188</v>
+        <v>5.16467065868265</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2004-11</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-24.8407643312102</v>
+        <v>42.0977011494253</v>
       </c>
       <c r="C24" t="n">
-        <v>4.72</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>-4.25963488843813</v>
+        <v>-1.68986083499006</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>14.8235294117647</v>
       </c>
       <c r="F24" t="n">
-        <v>2.87</v>
+        <v>4.88</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.692041522491351</v>
+        <v>2.30607966457023</v>
       </c>
       <c r="H24" t="n">
-        <v>9.01771336553945</v>
+        <v>45.803842264914</v>
       </c>
       <c r="I24" t="n">
-        <v>6.77</v>
+        <v>14.42</v>
       </c>
       <c r="J24" t="n">
-        <v>-1.16788321167883</v>
+        <v>2.63345195729536</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2004-12</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-20.7482993197279</v>
+        <v>20.1859229747676</v>
       </c>
       <c r="C25" t="n">
-        <v>4.66</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.27118644067797</v>
+        <v>-8.49342770475228</v>
       </c>
       <c r="E25" t="n">
-        <v>1.05633802816902</v>
+        <v>17.7458033573141</v>
       </c>
       <c r="F25" t="n">
-        <v>2.87</v>
+        <v>4.91</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.614754098360663</v>
       </c>
       <c r="H25" t="n">
-        <v>6.16113744075828</v>
+        <v>42.8994082840237</v>
       </c>
       <c r="I25" t="n">
-        <v>6.72</v>
+        <v>14.49</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.738552437223035</v>
+        <v>0.485436893203882</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2005-01</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-21.6806722689076</v>
+        <v>-8.690744920993231</v>
       </c>
       <c r="C26" t="n">
-        <v>4.66</v>
+        <v>8.09</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-0.369458128078819</v>
       </c>
       <c r="E26" t="n">
-        <v>1.42348754448399</v>
+        <v>5.08130081300813</v>
       </c>
       <c r="F26" t="n">
-        <v>2.85</v>
+        <v>5.17</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.696864111498257</v>
+        <v>0.193798449612402</v>
       </c>
       <c r="H26" t="n">
-        <v>2.13740458015268</v>
+        <v>0.211714890613976</v>
       </c>
       <c r="I26" t="n">
-        <v>6.69</v>
+        <v>14.2</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.446428571428555</v>
+        <v>-1.86592950932966</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2005-02</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-20.7011686143573</v>
+        <v>-0.9696969696969689</v>
       </c>
       <c r="C27" t="n">
-        <v>4.75</v>
+        <v>8.17</v>
       </c>
       <c r="D27" t="n">
-        <v>1.93133047210301</v>
+        <v>0.988875154511732</v>
       </c>
       <c r="E27" t="n">
-        <v>2.52707581227436</v>
+        <v>5.91836734693878</v>
       </c>
       <c r="F27" t="n">
-        <v>2.84</v>
+        <v>5.19</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.350877192982466</v>
+        <v>0.386847195357845</v>
       </c>
       <c r="H27" t="n">
-        <v>3.38983050847457</v>
+        <v>1.22655122655122</v>
       </c>
       <c r="I27" t="n">
-        <v>6.71</v>
+        <v>14.03</v>
       </c>
       <c r="J27" t="n">
-        <v>0.298953662182356</v>
+        <v>-1.19718309859155</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2005-03</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-19.1103789126853</v>
+        <v>0.988875154511732</v>
       </c>
       <c r="C28" t="n">
-        <v>4.91</v>
+        <v>8.17</v>
       </c>
       <c r="D28" t="n">
-        <v>3.36842105263158</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>2.5089605734767</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>2.86</v>
+        <v>5.2</v>
       </c>
       <c r="G28" t="n">
-        <v>0.704225352112672</v>
+        <v>0.192678227360304</v>
       </c>
       <c r="H28" t="n">
-        <v>0.301659125188544</v>
+        <v>3.84047267355983</v>
       </c>
       <c r="I28" t="n">
-        <v>6.65</v>
+        <v>14.06</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.894187779433679</v>
+        <v>0.213827512473273</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2005-04</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-22.5122349102773</v>
+        <v>-21.8627450980392</v>
       </c>
       <c r="C29" t="n">
-        <v>4.75</v>
+        <v>7.97</v>
       </c>
       <c r="D29" t="n">
-        <v>-3.25865580448065</v>
+        <v>-1.48331273176761</v>
       </c>
       <c r="E29" t="n">
-        <v>-1.04166666666666</v>
+        <v>12.0535714285714</v>
       </c>
       <c r="F29" t="n">
-        <v>2.85</v>
+        <v>5.02</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.349650349650346</v>
+        <v>-3.46153846153847</v>
       </c>
       <c r="H29" t="n">
-        <v>-1.48367952522256</v>
+        <v>25.2968036529681</v>
       </c>
       <c r="I29" t="n">
-        <v>6.64</v>
+        <v>13.72</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.150375939849638</v>
+        <v>1.32939438700149</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2005-05</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-18.976897689769</v>
+        <v>-24.9521988527725</v>
       </c>
       <c r="C30" t="n">
-        <v>4.91</v>
+        <v>7.85</v>
       </c>
       <c r="D30" t="n">
-        <v>3.36842105263158</v>
+        <v>-1.50564617314932</v>
       </c>
       <c r="E30" t="n">
-        <v>-2.11267605633803</v>
+        <v>10.7692307692308</v>
       </c>
       <c r="F30" t="n">
-        <v>2.78</v>
+        <v>5.04</v>
       </c>
       <c r="G30" t="n">
-        <v>-2.45614035087721</v>
+        <v>0.398406374501988</v>
       </c>
       <c r="H30" t="n">
-        <v>-3.09278350515464</v>
+        <v>26.3348416289593</v>
       </c>
       <c r="I30" t="n">
-        <v>6.58</v>
+        <v>13.96</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.90361445783131</v>
+        <v>1.74927113702623</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2005-06</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-15.3456998313659</v>
+        <v>-26.890756302521</v>
       </c>
       <c r="C31" t="n">
-        <v>5.02</v>
+        <v>7.83</v>
       </c>
       <c r="D31" t="n">
-        <v>2.24032586558043</v>
+        <v>-0.254777070063696</v>
       </c>
       <c r="E31" t="n">
-        <v>-9.57446808510638</v>
+        <v>9.090909090909079</v>
       </c>
       <c r="F31" t="n">
-        <v>2.55</v>
+        <v>5.04</v>
       </c>
       <c r="G31" t="n">
-        <v>-8.27338129496404</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-4.37317784256561</v>
+        <v>28.6870503597122</v>
       </c>
       <c r="I31" t="n">
-        <v>6.56</v>
+        <v>14.31</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.303951367781167</v>
+        <v>2.50716332378222</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2005-07</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-10.6086956521739</v>
+        <v>-24.3809523809524</v>
       </c>
       <c r="C32" t="n">
-        <v>5.14</v>
+        <v>7.94</v>
       </c>
       <c r="D32" t="n">
-        <v>2.39043824701196</v>
+        <v>1.40485312899105</v>
       </c>
       <c r="E32" t="n">
-        <v>-13.7931034482759</v>
+        <v>8.99357601713062</v>
       </c>
       <c r="F32" t="n">
-        <v>2.5</v>
+        <v>5.09</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.96078431372548</v>
+        <v>0.992063492063494</v>
       </c>
       <c r="H32" t="n">
-        <v>-4.66472303206997</v>
+        <v>26.6724587315378</v>
       </c>
       <c r="I32" t="n">
-        <v>6.54</v>
+        <v>14.58</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.304878048780481</v>
+        <v>1.88679245283019</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2005-08</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-9.893992932862201</v>
+        <v>-21.1211211211211</v>
       </c>
       <c r="C33" t="n">
-        <v>5.1</v>
+        <v>7.88</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.778210116731515</v>
+        <v>-0.755667506297229</v>
       </c>
       <c r="E33" t="n">
-        <v>-12.80276816609</v>
+        <v>8.779443254817989</v>
       </c>
       <c r="F33" t="n">
-        <v>2.52</v>
+        <v>5.08</v>
       </c>
       <c r="G33" t="n">
-        <v>0.799999999999997</v>
+        <v>-0.196463654223962</v>
       </c>
       <c r="H33" t="n">
-        <v>-4.63768115942029</v>
+        <v>20.7066557107642</v>
       </c>
       <c r="I33" t="n">
-        <v>6.58</v>
+        <v>14.69</v>
       </c>
       <c r="J33" t="n">
-        <v>0.611620795107044</v>
+        <v>0.754458161865571</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2005-09</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.751879699248121</v>
+        <v>-22.3552894211577</v>
       </c>
       <c r="C34" t="n">
-        <v>5.28</v>
+        <v>7.78</v>
       </c>
       <c r="D34" t="n">
-        <v>3.5294117647059</v>
+        <v>-1.26903553299492</v>
       </c>
       <c r="E34" t="n">
-        <v>-13.013698630137</v>
+        <v>8.955223880597019</v>
       </c>
       <c r="F34" t="n">
-        <v>2.54</v>
+        <v>5.11</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7936507936507839</v>
+        <v>0.590551181102356</v>
       </c>
       <c r="H34" t="n">
-        <v>-3.93586005830904</v>
+        <v>10.2544910179641</v>
       </c>
       <c r="I34" t="n">
-        <v>6.59</v>
+        <v>14.73</v>
       </c>
       <c r="J34" t="n">
-        <v>0.151975683890583</v>
+        <v>0.272294077603803</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2005-10</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>11.7647058823529</v>
+        <v>-22.2664015904572</v>
       </c>
       <c r="C35" t="n">
-        <v>5.51</v>
+        <v>7.82</v>
       </c>
       <c r="D35" t="n">
-        <v>4.35606060606059</v>
+        <v>0.514138817480728</v>
       </c>
       <c r="E35" t="n">
-        <v>-11.0726643598616</v>
+        <v>5.87002096436061</v>
       </c>
       <c r="F35" t="n">
-        <v>2.57</v>
+        <v>5.05</v>
       </c>
       <c r="G35" t="n">
-        <v>1.18110236220473</v>
+        <v>-1.17416829745598</v>
       </c>
       <c r="H35" t="n">
-        <v>-4.67153284671532</v>
+        <v>4.62633451957295</v>
       </c>
       <c r="I35" t="n">
-        <v>6.53</v>
+        <v>14.7</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.910470409711678</v>
+        <v>-0.203665987780042</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2005-11</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>16.1016949152543</v>
+        <v>-20.2224469160768</v>
       </c>
       <c r="C36" t="n">
-        <v>5.48</v>
+        <v>7.89</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.544464609800357</v>
+        <v>0.89514066496163</v>
       </c>
       <c r="E36" t="n">
-        <v>-10.1045296167247</v>
+        <v>4.71311475409837</v>
       </c>
       <c r="F36" t="n">
-        <v>2.58</v>
+        <v>5.11</v>
       </c>
       <c r="G36" t="n">
-        <v>0.389105058365757</v>
+        <v>1.1881188118812</v>
       </c>
       <c r="H36" t="n">
-        <v>-3.5450516986706</v>
+        <v>1.45631067961165</v>
       </c>
       <c r="I36" t="n">
-        <v>6.53</v>
+        <v>14.63</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>-0.476190476190467</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2005-12</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.8154506437768</v>
+        <v>-10.2762430939227</v>
       </c>
       <c r="C37" t="n">
-        <v>5.63</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>2.73722627737226</v>
+        <v>2.91508238276299</v>
       </c>
       <c r="E37" t="n">
-        <v>-9.059233449477359</v>
+        <v>5.09164969450102</v>
       </c>
       <c r="F37" t="n">
-        <v>2.61</v>
+        <v>5.16</v>
       </c>
       <c r="G37" t="n">
-        <v>1.16279069767442</v>
+        <v>0.978473581213308</v>
       </c>
       <c r="H37" t="n">
-        <v>-3.125</v>
+        <v>-0.138026224982752</v>
       </c>
       <c r="I37" t="n">
-        <v>6.51</v>
+        <v>14.47</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.306278713629411</v>
+        <v>-1.09364319890636</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2006-01</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>20.3862660944206</v>
+        <v>3.58467243510508</v>
       </c>
       <c r="C38" t="n">
-        <v>5.61</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.355239786856117</v>
+        <v>0.359281437125759</v>
       </c>
       <c r="E38" t="n">
-        <v>-8.771929824561409</v>
+        <v>4.25531914893618</v>
       </c>
       <c r="F38" t="n">
-        <v>2.6</v>
+        <v>5.39</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.383141762452098</v>
+        <v>0.936329588014971</v>
       </c>
       <c r="H38" t="n">
-        <v>-1.19581464872944</v>
+        <v>-10</v>
       </c>
       <c r="I38" t="n">
-        <v>6.61</v>
+        <v>12.78</v>
       </c>
       <c r="J38" t="n">
-        <v>1.53609831029186</v>
+        <v>-1.84331797235023</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2006-02</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>17.6842105263158</v>
+        <v>3.18237454100367</v>
       </c>
       <c r="C39" t="n">
-        <v>5.59</v>
+        <v>8.43</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.356506238859183</v>
+        <v>0.596658711217174</v>
       </c>
       <c r="E39" t="n">
-        <v>-7.74647887323943</v>
+        <v>4.43159922928709</v>
       </c>
       <c r="F39" t="n">
-        <v>2.62</v>
+        <v>5.42</v>
       </c>
       <c r="G39" t="n">
-        <v>0.769230769230774</v>
+        <v>0.556586270871989</v>
       </c>
       <c r="H39" t="n">
-        <v>-1.93740685543963</v>
+        <v>-10.0498930862438</v>
       </c>
       <c r="I39" t="n">
-        <v>6.58</v>
+        <v>12.62</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.453857791225417</v>
+        <v>-1.25195618153364</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2006-03</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>13.6456211812627</v>
+        <v>3.05997552019583</v>
       </c>
       <c r="C40" t="n">
-        <v>5.58</v>
+        <v>8.42</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.178890876565291</v>
+        <v>-0.118623962040331</v>
       </c>
       <c r="E40" t="n">
-        <v>-6.99300699300699</v>
+        <v>4.03846153846155</v>
       </c>
       <c r="F40" t="n">
-        <v>2.66</v>
+        <v>5.41</v>
       </c>
       <c r="G40" t="n">
-        <v>1.52671755725191</v>
+        <v>-0.184501845018445</v>
       </c>
       <c r="H40" t="n">
-        <v>-1.50375939849626</v>
+        <v>-11.3086770981508</v>
       </c>
       <c r="I40" t="n">
-        <v>6.55</v>
+        <v>12.47</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.455927051671736</v>
+        <v>-1.18858954041204</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2006-04</t>
+          <t>2013-01</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>18.1052631578947</v>
+        <v>2.7603513174404</v>
       </c>
       <c r="C41" t="n">
-        <v>5.61</v>
+        <v>8.19</v>
       </c>
       <c r="D41" t="n">
-        <v>0.537634408602145</v>
+        <v>0.244798041615653</v>
       </c>
       <c r="E41" t="n">
-        <v>-6.31578947368422</v>
+        <v>4.7808764940239</v>
       </c>
       <c r="F41" t="n">
-        <v>2.67</v>
+        <v>5.26</v>
       </c>
       <c r="G41" t="n">
-        <v>0.375939849624046</v>
+        <v>1.15384615384615</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.90361445783131</v>
+        <v>2.69679300291546</v>
       </c>
       <c r="I41" t="n">
-        <v>6.58</v>
+        <v>14.09</v>
       </c>
       <c r="J41" t="n">
-        <v>0.458015267175568</v>
+        <v>0.213371266002852</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2006-05</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>13.4419551934827</v>
+        <v>4.84076433121021</v>
       </c>
       <c r="C42" t="n">
-        <v>5.57</v>
+        <v>8.23</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.713012477718351</v>
+        <v>0.488400488400515</v>
       </c>
       <c r="E42" t="n">
-        <v>-6.47482014388488</v>
+        <v>5.15873015873017</v>
       </c>
       <c r="F42" t="n">
-        <v>2.6</v>
+        <v>5.3</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.62172284644194</v>
+        <v>0.7604562737642619</v>
       </c>
       <c r="H42" t="n">
-        <v>1.67173252279636</v>
+        <v>0.501432664756436</v>
       </c>
       <c r="I42" t="n">
-        <v>6.69</v>
+        <v>14.03</v>
       </c>
       <c r="J42" t="n">
-        <v>1.67173252279636</v>
+        <v>-0.42583392476935</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2006-06</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>11.1553784860558</v>
+        <v>3.19284802043423</v>
       </c>
       <c r="C43" t="n">
-        <v>5.58</v>
+        <v>8.08</v>
       </c>
       <c r="D43" t="n">
-        <v>0.179533213644518</v>
+        <v>-1.82260024301337</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>6.74603174603175</v>
       </c>
       <c r="F43" t="n">
-        <v>2.55</v>
+        <v>5.38</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.92307692307693</v>
+        <v>1.50943396226415</v>
       </c>
       <c r="H43" t="n">
-        <v>4.26829268292683</v>
+        <v>-2.58560447239692</v>
       </c>
       <c r="I43" t="n">
-        <v>6.84</v>
+        <v>13.94</v>
       </c>
       <c r="J43" t="n">
-        <v>2.2421524663677</v>
+        <v>-0.641482537419819</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2006-07</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>8.94941634241245</v>
+        <v>1.13350125944582</v>
       </c>
       <c r="C44" t="n">
-        <v>5.6</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.358422939068092</v>
+        <v>-0.618811881188137</v>
       </c>
       <c r="E44" t="n">
-        <v>3.2</v>
+        <v>6.286836935167</v>
       </c>
       <c r="F44" t="n">
-        <v>2.58</v>
+        <v>5.41</v>
       </c>
       <c r="G44" t="n">
-        <v>1.17647058823532</v>
+        <v>0.557620817843869</v>
       </c>
       <c r="H44" t="n">
-        <v>6.11620795107035</v>
+        <v>-5.34979423868313</v>
       </c>
       <c r="I44" t="n">
-        <v>6.94</v>
+        <v>13.8</v>
       </c>
       <c r="J44" t="n">
-        <v>1.46198830409357</v>
+        <v>-1.00430416068865</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2006-08</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>9.01960784313725</v>
+        <v>1.90355329949239</v>
       </c>
       <c r="C45" t="n">
-        <v>5.56</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.714285714285708</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>3.17460317460319</v>
+        <v>3.34645669291338</v>
       </c>
       <c r="F45" t="n">
-        <v>2.6</v>
+        <v>5.25</v>
       </c>
       <c r="G45" t="n">
-        <v>0.775193798449607</v>
+        <v>-2.95748613678374</v>
       </c>
       <c r="H45" t="n">
-        <v>6.53495440729483</v>
+        <v>-7.89652825051054</v>
       </c>
       <c r="I45" t="n">
-        <v>7.01</v>
+        <v>13.53</v>
       </c>
       <c r="J45" t="n">
-        <v>1.00864553314119</v>
+        <v>-1.95652173913045</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2006-09</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5.11363636363636</v>
+        <v>3.08483290488431</v>
       </c>
       <c r="C46" t="n">
-        <v>5.55</v>
+        <v>8.02</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.17985611510791</v>
+        <v>-0.124533001245325</v>
       </c>
       <c r="E46" t="n">
-        <v>3.54330708661416</v>
+        <v>2.15264187866926</v>
       </c>
       <c r="F46" t="n">
-        <v>2.63</v>
+        <v>5.22</v>
       </c>
       <c r="G46" t="n">
-        <v>1.15384615384615</v>
+        <v>-0.5714285714285841</v>
       </c>
       <c r="H46" t="n">
-        <v>6.06980273141124</v>
+        <v>-10.2511880515954</v>
       </c>
       <c r="I46" t="n">
-        <v>6.99</v>
+        <v>13.22</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.285306704707551</v>
+        <v>-2.29120473022911</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2006-10</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-3.08529945553538</v>
+        <v>2.94117647058825</v>
       </c>
       <c r="C47" t="n">
-        <v>5.34</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>-3.78378378378378</v>
+        <v>0.374064837905252</v>
       </c>
       <c r="E47" t="n">
-        <v>3.50194552529184</v>
+        <v>4.15841584158416</v>
       </c>
       <c r="F47" t="n">
-        <v>2.66</v>
+        <v>5.26</v>
       </c>
       <c r="G47" t="n">
-        <v>1.14068441064639</v>
+        <v>0.766283524904225</v>
       </c>
       <c r="H47" t="n">
-        <v>6.73813169984685</v>
+        <v>-10.4081632653061</v>
       </c>
       <c r="I47" t="n">
-        <v>6.97</v>
+        <v>13.17</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.286123032904158</v>
+        <v>-0.378214826021178</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2006-11</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-2.55474452554746</v>
+        <v>1.90114068441063</v>
       </c>
       <c r="C48" t="n">
-        <v>5.34</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>-0.124223602484491</v>
       </c>
       <c r="E48" t="n">
-        <v>3.87596899224806</v>
+        <v>3.71819960861055</v>
       </c>
       <c r="F48" t="n">
-        <v>2.68</v>
+        <v>5.3</v>
       </c>
       <c r="G48" t="n">
-        <v>0.751879699248121</v>
+        <v>0.7604562737642619</v>
       </c>
       <c r="H48" t="n">
-        <v>8.42266462480856</v>
+        <v>-9.91114149008887</v>
       </c>
       <c r="I48" t="n">
-        <v>7.08</v>
+        <v>13.18</v>
       </c>
       <c r="J48" t="n">
-        <v>1.57819225251077</v>
+        <v>0.075930144267275</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2006-12</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-4.44049733570159</v>
+        <v>2.83251231527095</v>
       </c>
       <c r="C49" t="n">
-        <v>5.38</v>
+        <v>8.35</v>
       </c>
       <c r="D49" t="n">
-        <v>0.749063670411985</v>
+        <v>3.85572139303483</v>
       </c>
       <c r="E49" t="n">
-        <v>13.0268199233717</v>
+        <v>3.48837209302324</v>
       </c>
       <c r="F49" t="n">
-        <v>2.95</v>
+        <v>5.34</v>
       </c>
       <c r="G49" t="n">
-        <v>10.0746268656716</v>
+        <v>0.754716981132077</v>
       </c>
       <c r="H49" t="n">
-        <v>11.8279569892473</v>
+        <v>-10.0207325501037</v>
       </c>
       <c r="I49" t="n">
-        <v>7.28</v>
+        <v>13.02</v>
       </c>
       <c r="J49" t="n">
-        <v>2.82485875706216</v>
+        <v>-1.21396054628224</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2007-01</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.178253119429598</v>
+        <v>-11.8138424821002</v>
       </c>
       <c r="C50" t="n">
-        <v>5.6</v>
+        <v>7.39</v>
       </c>
       <c r="D50" t="n">
-        <v>4.08921933085502</v>
+        <v>-8.31265508684864</v>
       </c>
       <c r="E50" t="n">
-        <v>12.3076923076923</v>
+        <v>-1.48423005565863</v>
       </c>
       <c r="F50" t="n">
-        <v>2.92</v>
+        <v>5.31</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.01694915254238</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>10.89258698941</v>
+        <v>-6.25978090766822</v>
       </c>
       <c r="I50" t="n">
-        <v>7.33</v>
+        <v>11.98</v>
       </c>
       <c r="J50" t="n">
-        <v>0.686813186813183</v>
+        <v>0.503355704697995</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2007-02</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1.43112701252237</v>
+        <v>-16.3701067615658</v>
       </c>
       <c r="C51" t="n">
-        <v>5.67</v>
+        <v>7.05</v>
       </c>
       <c r="D51" t="n">
-        <v>1.25</v>
+        <v>-4.60081190798375</v>
       </c>
       <c r="E51" t="n">
-        <v>12.9770992366412</v>
+        <v>-1.29151291512916</v>
       </c>
       <c r="F51" t="n">
-        <v>2.96</v>
+        <v>5.35</v>
       </c>
       <c r="G51" t="n">
-        <v>1.36986301369863</v>
+        <v>0.75329566854991</v>
       </c>
       <c r="H51" t="n">
-        <v>13.2218844984803</v>
+        <v>-2.93185419968303</v>
       </c>
       <c r="I51" t="n">
-        <v>7.45</v>
+        <v>12.25</v>
       </c>
       <c r="J51" t="n">
-        <v>1.63710777626194</v>
+        <v>2.25375626043404</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2007-03</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2.5089605734767</v>
+        <v>-17.458432304038</v>
       </c>
       <c r="C52" t="n">
-        <v>5.72</v>
+        <v>6.95</v>
       </c>
       <c r="D52" t="n">
-        <v>0.881834215167544</v>
+        <v>-1.41843971631205</v>
       </c>
       <c r="E52" t="n">
-        <v>12.781954887218</v>
+        <v>-0.7393715341959251</v>
       </c>
       <c r="F52" t="n">
-        <v>3</v>
+        <v>5.37</v>
       </c>
       <c r="G52" t="n">
-        <v>1.35135135135135</v>
+        <v>0.373831775700936</v>
       </c>
       <c r="H52" t="n">
-        <v>14.1984732824427</v>
+        <v>1.44346431435444</v>
       </c>
       <c r="I52" t="n">
-        <v>7.48</v>
+        <v>12.65</v>
       </c>
       <c r="J52" t="n">
-        <v>0.402684563758385</v>
+        <v>3.26530612244898</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2007-04</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3.74331550802138</v>
+        <v>1.83150183150182</v>
       </c>
       <c r="C53" t="n">
-        <v>5.82</v>
+        <v>8.34</v>
       </c>
       <c r="D53" t="n">
-        <v>1.74825174825175</v>
+        <v>-0.950118764845612</v>
       </c>
       <c r="E53" t="n">
-        <v>12.3595505617978</v>
+        <v>3.42205323193919</v>
       </c>
       <c r="F53" t="n">
-        <v>3</v>
+        <v>5.44</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>0.554528650646958</v>
       </c>
       <c r="H53" t="n">
-        <v>15.6534954407295</v>
+        <v>-13.4137686302342</v>
       </c>
       <c r="I53" t="n">
-        <v>7.61</v>
+        <v>12.2</v>
       </c>
       <c r="J53" t="n">
-        <v>1.7379679144385</v>
+        <v>-2.16519647153169</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2007-05</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1.79533213644523</v>
+        <v>0.364520048602657</v>
       </c>
       <c r="C54" t="n">
-        <v>5.67</v>
+        <v>8.26</v>
       </c>
       <c r="D54" t="n">
-        <v>-2.57731958762886</v>
+        <v>-0.959232613908881</v>
       </c>
       <c r="E54" t="n">
-        <v>17.3076923076923</v>
+        <v>2.26415094339623</v>
       </c>
       <c r="F54" t="n">
-        <v>3.05</v>
+        <v>5.42</v>
       </c>
       <c r="G54" t="n">
-        <v>1.66666666666666</v>
+        <v>-0.367647058823536</v>
       </c>
       <c r="H54" t="n">
-        <v>16.1434977578475</v>
+        <v>-14.8253741981468</v>
       </c>
       <c r="I54" t="n">
-        <v>7.77</v>
+        <v>11.95</v>
       </c>
       <c r="J54" t="n">
-        <v>2.10249671484888</v>
+        <v>-2.04918032786885</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2007-06</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1.97132616487457</v>
+        <v>2.35148514851484</v>
       </c>
       <c r="C55" t="n">
-        <v>5.69</v>
+        <v>8.27</v>
       </c>
       <c r="D55" t="n">
-        <v>0.352733686067026</v>
+        <v>0.121065375302649</v>
       </c>
       <c r="E55" t="n">
-        <v>32.1568627450981</v>
+        <v>0.371747211895922</v>
       </c>
       <c r="F55" t="n">
-        <v>3.37</v>
+        <v>5.4</v>
       </c>
       <c r="G55" t="n">
-        <v>10.4918032786885</v>
+        <v>-0.369003690036891</v>
       </c>
       <c r="H55" t="n">
-        <v>16.5204678362573</v>
+        <v>-15.9253945480631</v>
       </c>
       <c r="I55" t="n">
-        <v>7.97</v>
+        <v>11.72</v>
       </c>
       <c r="J55" t="n">
-        <v>2.57400257400258</v>
+        <v>-1.9246861924686</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2007-07</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>4.64285714285715</v>
+        <v>2.98879202988793</v>
       </c>
       <c r="C56" t="n">
-        <v>5.86</v>
+        <v>8.27</v>
       </c>
       <c r="D56" t="n">
-        <v>2.98769771528997</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>35.6589147286822</v>
+        <v>-0.554528650646958</v>
       </c>
       <c r="F56" t="n">
-        <v>3.5</v>
+        <v>5.38</v>
       </c>
       <c r="G56" t="n">
-        <v>3.85756676557862</v>
+        <v>-0.370370370370381</v>
       </c>
       <c r="H56" t="n">
-        <v>16.71469740634</v>
+        <v>-15.9420289855072</v>
       </c>
       <c r="I56" t="n">
-        <v>8.1</v>
+        <v>11.6</v>
       </c>
       <c r="J56" t="n">
-        <v>1.63111668757843</v>
+        <v>-1.02389078498294</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2007-08</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>7.91366906474822</v>
+        <v>3.48692403486925</v>
       </c>
       <c r="C57" t="n">
-        <v>6</v>
+        <v>8.31</v>
       </c>
       <c r="D57" t="n">
-        <v>2.3890784982935</v>
+        <v>0.483675937122129</v>
       </c>
       <c r="E57" t="n">
-        <v>37.6923076923077</v>
+        <v>0.761904761904759</v>
       </c>
       <c r="F57" t="n">
-        <v>3.58</v>
+        <v>5.29</v>
       </c>
       <c r="G57" t="n">
-        <v>2.28571428571429</v>
+        <v>-1.67286245353159</v>
       </c>
       <c r="H57" t="n">
-        <v>19.9714693295292</v>
+        <v>-13.1559497413156</v>
       </c>
       <c r="I57" t="n">
-        <v>8.41</v>
+        <v>11.75</v>
       </c>
       <c r="J57" t="n">
-        <v>3.82716049382716</v>
+        <v>1.29310344827587</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2007-09</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>7.02702702702705</v>
+        <v>3.36658354114712</v>
       </c>
       <c r="C58" t="n">
-        <v>5.94</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.999999999999986</v>
+        <v>-0.240673886883286</v>
       </c>
       <c r="E58" t="n">
-        <v>42.2053231939164</v>
+        <v>0.191570881226085</v>
       </c>
       <c r="F58" t="n">
-        <v>3.74</v>
+        <v>5.23</v>
       </c>
       <c r="G58" t="n">
-        <v>4.46927374301676</v>
+        <v>-1.13421550094517</v>
       </c>
       <c r="H58" t="n">
-        <v>21.8884120171674</v>
+        <v>-11.1195158850227</v>
       </c>
       <c r="I58" t="n">
-        <v>8.52</v>
+        <v>11.75</v>
       </c>
       <c r="J58" t="n">
-        <v>1.30796670630203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2007-10</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>15.7303370786517</v>
+        <v>2.85714285714285</v>
       </c>
       <c r="C59" t="n">
-        <v>6.18</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>4.04040404040403</v>
+        <v>-0.120627261761157</v>
       </c>
       <c r="E59" t="n">
-        <v>44.7368421052632</v>
+        <v>0.190114068441048</v>
       </c>
       <c r="F59" t="n">
-        <v>3.85</v>
+        <v>5.27</v>
       </c>
       <c r="G59" t="n">
-        <v>2.94117647058823</v>
+        <v>0.764818355640529</v>
       </c>
       <c r="H59" t="n">
-        <v>24.390243902439</v>
+        <v>-10.8580106302202</v>
       </c>
       <c r="I59" t="n">
-        <v>8.67</v>
+        <v>11.74</v>
       </c>
       <c r="J59" t="n">
-        <v>1.7605633802817</v>
+        <v>-0.085106382978722</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2007-11</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>17.9775280898876</v>
+        <v>0.99502487562188</v>
       </c>
       <c r="C60" t="n">
-        <v>6.3</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>1.94174757281553</v>
+        <v>-1.93236714975845</v>
       </c>
       <c r="E60" t="n">
-        <v>46.6417910447761</v>
+        <v>-0.188679245283012</v>
       </c>
       <c r="F60" t="n">
-        <v>3.93</v>
+        <v>5.29</v>
       </c>
       <c r="G60" t="n">
-        <v>2.07792207792208</v>
+        <v>0.379506641366234</v>
       </c>
       <c r="H60" t="n">
-        <v>30.5084745762712</v>
+        <v>-9.939301972685881</v>
       </c>
       <c r="I60" t="n">
-        <v>9.24</v>
+        <v>11.87</v>
       </c>
       <c r="J60" t="n">
-        <v>6.57439446366783</v>
+        <v>1.10732538330494</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2007-12</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>17.4721189591078</v>
+        <v>-3.47305389221556</v>
       </c>
       <c r="C61" t="n">
-        <v>6.32</v>
+        <v>8.06</v>
       </c>
       <c r="D61" t="n">
-        <v>0.317460317460316</v>
+        <v>-0.738916256157623</v>
       </c>
       <c r="E61" t="n">
-        <v>36.6101694915254</v>
+        <v>-0.561797752808985</v>
       </c>
       <c r="F61" t="n">
-        <v>4.03</v>
+        <v>5.31</v>
       </c>
       <c r="G61" t="n">
-        <v>2.54452926208653</v>
+        <v>0.378071833648377</v>
       </c>
       <c r="H61" t="n">
-        <v>32.5549450549451</v>
+        <v>-8.448540706605231</v>
       </c>
       <c r="I61" t="n">
-        <v>9.65</v>
+        <v>11.92</v>
       </c>
       <c r="J61" t="n">
-        <v>4.43722943722943</v>
+        <v>0.421229991575416</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2008-01</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>12.3214285714286</v>
+        <v>-9.60757780784844</v>
       </c>
       <c r="C62" t="n">
-        <v>6.29</v>
+        <v>6.68</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.474683544303801</v>
+        <v>-1.62002945508101</v>
       </c>
       <c r="E62" t="n">
-        <v>47.2602739726027</v>
+        <v>-3.20150659133709</v>
       </c>
       <c r="F62" t="n">
-        <v>4.3</v>
+        <v>5.14</v>
       </c>
       <c r="G62" t="n">
-        <v>6.69975186104217</v>
+        <v>-0.580270793036746</v>
       </c>
       <c r="H62" t="n">
-        <v>37.3806275579809</v>
+        <v>6.51085141903171</v>
       </c>
       <c r="I62" t="n">
-        <v>10.07</v>
+        <v>12.76</v>
       </c>
       <c r="J62" t="n">
-        <v>4.35233160621762</v>
+        <v>-1.39103554868623</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2008-02</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>12.1693121693122</v>
+        <v>-8.51063829787233</v>
       </c>
       <c r="C63" t="n">
-        <v>6.36</v>
+        <v>6.45</v>
       </c>
       <c r="D63" t="n">
-        <v>1.11287758346583</v>
+        <v>-3.44311377245509</v>
       </c>
       <c r="E63" t="n">
-        <v>57.0945945945946</v>
+        <v>-4.29906542056074</v>
       </c>
       <c r="F63" t="n">
-        <v>4.65</v>
+        <v>5.12</v>
       </c>
       <c r="G63" t="n">
-        <v>8.139534883720939</v>
+        <v>-0.389105058365743</v>
       </c>
       <c r="H63" t="n">
-        <v>37.4496644295302</v>
+        <v>3.51020408163265</v>
       </c>
       <c r="I63" t="n">
-        <v>10.24</v>
+        <v>12.68</v>
       </c>
       <c r="J63" t="n">
-        <v>1.68818272095332</v>
+        <v>-0.626959247648912</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2008-03</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>9.79020979020979</v>
+        <v>-6.18705035971225</v>
       </c>
       <c r="C64" t="n">
-        <v>6.28</v>
+        <v>6.52</v>
       </c>
       <c r="D64" t="n">
-        <v>-1.25786163522012</v>
+        <v>1.08527131782945</v>
       </c>
       <c r="E64" t="n">
-        <v>67.6666666666667</v>
+        <v>-4.2830540037244</v>
       </c>
       <c r="F64" t="n">
-        <v>5.03</v>
+        <v>5.14</v>
       </c>
       <c r="G64" t="n">
-        <v>8.17204301075269</v>
+        <v>0.390625</v>
       </c>
       <c r="H64" t="n">
-        <v>40.5080213903743</v>
+        <v>-0.158102766798422</v>
       </c>
       <c r="I64" t="n">
-        <v>10.51</v>
+        <v>12.63</v>
       </c>
       <c r="J64" t="n">
-        <v>2.63671875</v>
+        <v>-0.394321766561504</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2008-04</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>9.10652920962198</v>
+        <v>-17.1462829736211</v>
       </c>
       <c r="C65" t="n">
-        <v>6.35</v>
+        <v>6.91</v>
       </c>
       <c r="D65" t="n">
-        <v>1.11464968152866</v>
+        <v>-0.575539568345334</v>
       </c>
       <c r="E65" t="n">
-        <v>64.6666666666667</v>
+        <v>-1.10294117647059</v>
       </c>
       <c r="F65" t="n">
-        <v>4.94</v>
+        <v>5.38</v>
       </c>
       <c r="G65" t="n">
-        <v>-1.78926441351889</v>
+        <v>0.186219739292355</v>
       </c>
       <c r="H65" t="n">
-        <v>40.2102496714849</v>
+        <v>5.24590163934427</v>
       </c>
       <c r="I65" t="n">
-        <v>10.67</v>
+        <v>12.84</v>
       </c>
       <c r="J65" t="n">
-        <v>1.52235965746908</v>
+        <v>1.50197628458497</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2008-05</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>11.4638447971781</v>
+        <v>-16.5859564164649</v>
       </c>
       <c r="C66" t="n">
-        <v>6.32</v>
+        <v>6.89</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.472440944881882</v>
+        <v>-0.289435600578884</v>
       </c>
       <c r="E66" t="n">
-        <v>61.9672131147541</v>
+        <v>-0.5535055350553511</v>
       </c>
       <c r="F66" t="n">
-        <v>4.94</v>
+        <v>5.39</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>0.185873605947947</v>
       </c>
       <c r="H66" t="n">
-        <v>38.0952380952381</v>
+        <v>8.87029288702929</v>
       </c>
       <c r="I66" t="n">
-        <v>10.73</v>
+        <v>13.01</v>
       </c>
       <c r="J66" t="n">
-        <v>0.562324273664501</v>
+        <v>1.32398753894081</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2008-06</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>11.4235500878735</v>
+        <v>-16.2031438935913</v>
       </c>
       <c r="C67" t="n">
-        <v>6.34</v>
+        <v>6.93</v>
       </c>
       <c r="D67" t="n">
-        <v>0.316455696202539</v>
+        <v>0.580551523947761</v>
       </c>
       <c r="E67" t="n">
-        <v>50.4451038575668</v>
+        <v>-0.740740740740748</v>
       </c>
       <c r="F67" t="n">
-        <v>5.07</v>
+        <v>5.36</v>
       </c>
       <c r="G67" t="n">
-        <v>2.63157894736842</v>
+        <v>-0.556586270871975</v>
       </c>
       <c r="H67" t="n">
-        <v>35.0062735257214</v>
+        <v>10.6655290102389</v>
       </c>
       <c r="I67" t="n">
-        <v>10.76</v>
+        <v>12.97</v>
       </c>
       <c r="J67" t="n">
-        <v>0.279589934762342</v>
+        <v>-0.307455803228279</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2008-07</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>9.72696245733786</v>
+        <v>-16.807738814994</v>
       </c>
       <c r="C68" t="n">
-        <v>6.43</v>
+        <v>6.88</v>
       </c>
       <c r="D68" t="n">
-        <v>1.41955835962145</v>
+        <v>-0.721500721500718</v>
       </c>
       <c r="E68" t="n">
-        <v>48</v>
+        <v>-1.3011152416357</v>
       </c>
       <c r="F68" t="n">
-        <v>5.18</v>
+        <v>5.31</v>
       </c>
       <c r="G68" t="n">
-        <v>2.16962524654831</v>
+        <v>-0.932835820895534</v>
       </c>
       <c r="H68" t="n">
-        <v>33.4567901234568</v>
+        <v>12.2413793103448</v>
       </c>
       <c r="I68" t="n">
-        <v>10.81</v>
+        <v>13.02</v>
       </c>
       <c r="J68" t="n">
-        <v>0.464684014869903</v>
+        <v>0.38550501156513</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2008-08</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>6.66666666666667</v>
+        <v>-16.9675090252708</v>
       </c>
       <c r="C69" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.466562986003112</v>
+        <v>0.29069767441861</v>
       </c>
       <c r="E69" t="n">
-        <v>42.7374301675978</v>
+        <v>-2.64650283553874</v>
       </c>
       <c r="F69" t="n">
-        <v>5.11</v>
+        <v>5.15</v>
       </c>
       <c r="G69" t="n">
-        <v>-1.35135135135134</v>
+        <v>-3.01318267419961</v>
       </c>
       <c r="H69" t="n">
-        <v>27.5862068965517</v>
+        <v>10.9787234042553</v>
       </c>
       <c r="I69" t="n">
-        <v>10.73</v>
+        <v>13.04</v>
       </c>
       <c r="J69" t="n">
-        <v>-0.740055504162811</v>
+        <v>0.153609831029186</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2008-09</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2.18855218855218</v>
+        <v>-17.1290711700844</v>
       </c>
       <c r="C70" t="n">
-        <v>6.07</v>
+        <v>6.87</v>
       </c>
       <c r="D70" t="n">
-        <v>-5.15625</v>
+        <v>-0.434782608695656</v>
       </c>
       <c r="E70" t="n">
-        <v>32.8877005347593</v>
+        <v>-2.67686424474188</v>
       </c>
       <c r="F70" t="n">
-        <v>4.97</v>
+        <v>5.09</v>
       </c>
       <c r="G70" t="n">
-        <v>-2.73972602739727</v>
+        <v>-1.16504854368932</v>
       </c>
       <c r="H70" t="n">
-        <v>23.3568075117371</v>
+        <v>10.6382978723404</v>
       </c>
       <c r="I70" t="n">
-        <v>10.51</v>
+        <v>13</v>
       </c>
       <c r="J70" t="n">
-        <v>-2.05032618825723</v>
+        <v>-0.306748466257673</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2008-10</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-3.39805825242718</v>
+        <v>-17.8743961352657</v>
       </c>
       <c r="C71" t="n">
-        <v>5.97</v>
+        <v>6.8</v>
       </c>
       <c r="D71" t="n">
-        <v>-1.64744645799011</v>
+        <v>-1.01892285298399</v>
       </c>
       <c r="E71" t="n">
-        <v>23.8961038961039</v>
+        <v>-3.2258064516129</v>
       </c>
       <c r="F71" t="n">
-        <v>4.77</v>
+        <v>5.1</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.02414486921529</v>
+        <v>0.196463654223962</v>
       </c>
       <c r="H71" t="n">
-        <v>16.3783160322953</v>
+        <v>11.4139693356048</v>
       </c>
       <c r="I71" t="n">
-        <v>10.09</v>
+        <v>13.08</v>
       </c>
       <c r="J71" t="n">
-        <v>-3.99619410085633</v>
+        <v>0.615384615384613</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2008-11</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-19.3650793650794</v>
+        <v>-17.1182266009852</v>
       </c>
       <c r="C72" t="n">
-        <v>5.08</v>
+        <v>6.73</v>
       </c>
       <c r="D72" t="n">
-        <v>-14.9078726968174</v>
+        <v>-1.02941176470588</v>
       </c>
       <c r="E72" t="n">
-        <v>15.0127226463104</v>
+        <v>-4.53686200378071</v>
       </c>
       <c r="F72" t="n">
-        <v>4.52</v>
+        <v>5.05</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.24109014675052</v>
+        <v>-0.980392156862735</v>
       </c>
       <c r="H72" t="n">
-        <v>1.19047619047619</v>
+        <v>11.0362257792755</v>
       </c>
       <c r="I72" t="n">
-        <v>9.35</v>
+        <v>13.18</v>
       </c>
       <c r="J72" t="n">
-        <v>-7.33399405351834</v>
+        <v>0.7645259938837941</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2008-12</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-22.1518987341772</v>
+        <v>-15.75682382134</v>
       </c>
       <c r="C73" t="n">
-        <v>4.92</v>
+        <v>6.79</v>
       </c>
       <c r="D73" t="n">
-        <v>-3.14960629921261</v>
+        <v>0.891530460624068</v>
       </c>
       <c r="E73" t="n">
-        <v>9.181141439205961</v>
+        <v>-2.63653483992466</v>
       </c>
       <c r="F73" t="n">
-        <v>4.4</v>
+        <v>5.17</v>
       </c>
       <c r="G73" t="n">
-        <v>-2.65486725663715</v>
+        <v>2.37623762376238</v>
       </c>
       <c r="H73" t="n">
-        <v>-12.2279792746114</v>
+        <v>8.55704697986577</v>
       </c>
       <c r="I73" t="n">
-        <v>8.470000000000001</v>
+        <v>12.94</v>
       </c>
       <c r="J73" t="n">
-        <v>-9.41176470588235</v>
+        <v>-1.82094081942337</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2009-01</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-23.0524642289348</v>
+        <v>4.49101796407187</v>
       </c>
       <c r="C74" t="n">
-        <v>4.84</v>
+        <v>6.98</v>
       </c>
       <c r="D74" t="n">
-        <v>-1.6260162601626</v>
+        <v>0.721500721500718</v>
       </c>
       <c r="E74" t="n">
-        <v>1.86046511627906</v>
+        <v>-4.08560311284046</v>
       </c>
       <c r="F74" t="n">
-        <v>4.38</v>
+        <v>4.93</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.454545454545467</v>
+        <v>-0.604838709677423</v>
       </c>
       <c r="H74" t="n">
-        <v>-22.4428997020854</v>
+        <v>1.72413793103449</v>
       </c>
       <c r="I74" t="n">
-        <v>7.81</v>
+        <v>12.98</v>
       </c>
       <c r="J74" t="n">
-        <v>-7.7922077922078</v>
+        <v>-1.51745068285281</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2009-02</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-22.1698113207547</v>
+        <v>10.8527131782946</v>
       </c>
       <c r="C75" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2.4355300859599</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-3.3203125</v>
+      </c>
+      <c r="F75" t="n">
         <v>4.95</v>
       </c>
-      <c r="D75" t="n">
-        <v>2.27272727272727</v>
-      </c>
-      <c r="E75" t="n">
-        <v>-2.7956989247312</v>
-      </c>
-      <c r="F75" t="n">
-        <v>4.52</v>
-      </c>
       <c r="G75" t="n">
-        <v>3.19634703196346</v>
+        <v>0.405679513184594</v>
       </c>
       <c r="H75" t="n">
-        <v>-25.1953125</v>
+        <v>2.2870662460568</v>
       </c>
       <c r="I75" t="n">
-        <v>7.66</v>
+        <v>12.97</v>
       </c>
       <c r="J75" t="n">
-        <v>-1.92061459667093</v>
+        <v>-0.077041602465329</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2009-03</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-18.1528662420382</v>
+        <v>10.7361963190184</v>
       </c>
       <c r="C76" t="n">
-        <v>5.14</v>
+        <v>7.22</v>
       </c>
       <c r="D76" t="n">
-        <v>3.83838383838382</v>
+        <v>0.979020979020959</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.7236580516899</v>
+        <v>-2.33463035019456</v>
       </c>
       <c r="F76" t="n">
-        <v>4.39</v>
+        <v>5.02</v>
       </c>
       <c r="G76" t="n">
-        <v>-2.87610619469027</v>
+        <v>1.4141414141414</v>
       </c>
       <c r="H76" t="n">
-        <v>-29.7811607992388</v>
+        <v>2.69200316706255</v>
       </c>
       <c r="I76" t="n">
-        <v>7.38</v>
+        <v>12.97</v>
       </c>
       <c r="J76" t="n">
-        <v>-3.65535248041776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2009-04</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-16.2204724409449</v>
+        <v>-1.01302460202606</v>
       </c>
       <c r="C77" t="n">
-        <v>5.32</v>
+        <v>6.84</v>
       </c>
       <c r="D77" t="n">
-        <v>3.50194552529184</v>
+        <v>4.9079754601227</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.753036437247</v>
+        <v>-6.87732342007436</v>
       </c>
       <c r="F77" t="n">
-        <v>4.31</v>
+        <v>5.01</v>
       </c>
       <c r="G77" t="n">
-        <v>-1.82232346241457</v>
+        <v>-2.52918287937743</v>
       </c>
       <c r="H77" t="n">
-        <v>-31.0215557638238</v>
+        <v>-1.01246105919003</v>
       </c>
       <c r="I77" t="n">
-        <v>7.36</v>
+        <v>12.71</v>
       </c>
       <c r="J77" t="n">
-        <v>-0.271002710027091</v>
+        <v>0.633412509897084</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2009-05</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-13.1329113924051</v>
+        <v>-3.62844702467345</v>
       </c>
       <c r="C78" t="n">
-        <v>5.49</v>
+        <v>6.64</v>
       </c>
       <c r="D78" t="n">
-        <v>3.19548872180451</v>
+        <v>-2.92397660818715</v>
       </c>
       <c r="E78" t="n">
-        <v>-17.4089068825911</v>
+        <v>-7.60667903525045</v>
       </c>
       <c r="F78" t="n">
-        <v>4.08</v>
+        <v>4.98</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.33642691415312</v>
+        <v>-0.59880239520956</v>
       </c>
       <c r="H78" t="n">
-        <v>-30.3821062441752</v>
+        <v>-1.92159877017679</v>
       </c>
       <c r="I78" t="n">
-        <v>7.47</v>
+        <v>12.76</v>
       </c>
       <c r="J78" t="n">
-        <v>1.49456521739128</v>
+        <v>0.393391030684498</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2009-06</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-13.8801261829653</v>
+        <v>-5.19480519480518</v>
       </c>
       <c r="C79" t="n">
-        <v>5.46</v>
+        <v>6.57</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.546448087431699</v>
+        <v>-1.05421686746988</v>
       </c>
       <c r="E79" t="n">
-        <v>-23.2741617357002</v>
+        <v>-7.27611940298509</v>
       </c>
       <c r="F79" t="n">
-        <v>3.89</v>
+        <v>4.97</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.65686274509804</v>
+        <v>-0.200803212851426</v>
       </c>
       <c r="H79" t="n">
-        <v>-30.1115241635688</v>
+        <v>-0.771010023130316</v>
       </c>
       <c r="I79" t="n">
-        <v>7.52</v>
+        <v>12.87</v>
       </c>
       <c r="J79" t="n">
-        <v>0.66934404283802</v>
+        <v>0.862068965517238</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2009-07</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-13.2192846034215</v>
+        <v>-4.36046511627907</v>
       </c>
       <c r="C80" t="n">
-        <v>5.58</v>
+        <v>6.58</v>
       </c>
       <c r="D80" t="n">
-        <v>2.19780219780219</v>
+        <v>0.152207001522072</v>
       </c>
       <c r="E80" t="n">
-        <v>-24.9034749034749</v>
+        <v>-6.4030131826742</v>
       </c>
       <c r="F80" t="n">
-        <v>3.89</v>
+        <v>4.97</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>-30.1572617946346</v>
+        <v>0.307219662058372</v>
       </c>
       <c r="I80" t="n">
-        <v>7.55</v>
+        <v>13.06</v>
       </c>
       <c r="J80" t="n">
-        <v>0.398936170212764</v>
+        <v>1.47630147630149</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2009-08</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-12.8125</v>
+        <v>-4.20289855072464</v>
       </c>
       <c r="C81" t="n">
-        <v>5.58</v>
+        <v>6.61</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>0.45592705167175</v>
       </c>
       <c r="E81" t="n">
-        <v>-25.2446183953033</v>
+        <v>-5.4368932038835</v>
       </c>
       <c r="F81" t="n">
-        <v>3.82</v>
+        <v>4.87</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.79948586118253</v>
+        <v>-2.01207243460763</v>
       </c>
       <c r="H81" t="n">
-        <v>-29.2637465051258</v>
+        <v>1.30368098159511</v>
       </c>
       <c r="I81" t="n">
-        <v>7.59</v>
+        <v>13.21</v>
       </c>
       <c r="J81" t="n">
-        <v>0.52980132450331</v>
+        <v>1.14854517611028</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2009-09</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-7.41350906095552</v>
+        <v>-3.63901018922853</v>
       </c>
       <c r="C82" t="n">
-        <v>5.62</v>
+        <v>6.62</v>
       </c>
       <c r="D82" t="n">
-        <v>0.716845878136212</v>
+        <v>0.151285930408477</v>
       </c>
       <c r="E82" t="n">
-        <v>-22.3340040241449</v>
+        <v>-5.89390962671905</v>
       </c>
       <c r="F82" t="n">
-        <v>3.86</v>
+        <v>4.79</v>
       </c>
       <c r="G82" t="n">
-        <v>1.04712041884815</v>
+        <v>-1.64271047227926</v>
       </c>
       <c r="H82" t="n">
-        <v>-25.9752616555661</v>
+        <v>3.92307692307692</v>
       </c>
       <c r="I82" t="n">
-        <v>7.78</v>
+        <v>13.51</v>
       </c>
       <c r="J82" t="n">
-        <v>2.50329380764165</v>
+        <v>2.27100681302043</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2009-10</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-1.50753768844221</v>
+        <v>-1.76470588235294</v>
       </c>
       <c r="C83" t="n">
-        <v>5.88</v>
+        <v>6.68</v>
       </c>
       <c r="D83" t="n">
-        <v>4.62633451957295</v>
+        <v>0.90634441087613</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.6582809224319</v>
+        <v>-3.92156862745097</v>
       </c>
       <c r="F83" t="n">
-        <v>3.88</v>
+        <v>4.9</v>
       </c>
       <c r="G83" t="n">
-        <v>0.518134715025909</v>
+        <v>2.2964509394572</v>
       </c>
       <c r="H83" t="n">
-        <v>-20.6144697720515</v>
+        <v>5.04587155963303</v>
       </c>
       <c r="I83" t="n">
-        <v>8.01</v>
+        <v>13.74</v>
       </c>
       <c r="J83" t="n">
-        <v>2.95629820051413</v>
+        <v>1.70244263508512</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2009-11</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>23.0314960629921</v>
+        <v>0.594353640416045</v>
       </c>
       <c r="C84" t="n">
-        <v>6.25</v>
+        <v>6.77</v>
       </c>
       <c r="D84" t="n">
-        <v>6.29251700680274</v>
+        <v>1.34730538922156</v>
       </c>
       <c r="E84" t="n">
-        <v>-13.2743362831858</v>
+        <v>-2.97029702970296</v>
       </c>
       <c r="F84" t="n">
-        <v>3.92</v>
+        <v>4.9</v>
       </c>
       <c r="G84" t="n">
-        <v>1.03092783505154</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>-7.59358288770052</v>
+        <v>3.49013657056145</v>
       </c>
       <c r="I84" t="n">
-        <v>8.640000000000001</v>
+        <v>13.64</v>
       </c>
       <c r="J84" t="n">
-        <v>7.86516853932586</v>
+        <v>-0.727802037845706</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2009-12</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>30.6910569105691</v>
+        <v>2.06185567010309</v>
       </c>
       <c r="C85" t="n">
-        <v>6.43</v>
+        <v>6.93</v>
       </c>
       <c r="D85" t="n">
-        <v>2.88</v>
+        <v>2.36336779911375</v>
       </c>
       <c r="E85" t="n">
-        <v>-7.5</v>
+        <v>-4.06189555125725</v>
       </c>
       <c r="F85" t="n">
-        <v>4.07</v>
+        <v>4.96</v>
       </c>
       <c r="G85" t="n">
-        <v>3.82653061224491</v>
+        <v>1.22448979591836</v>
       </c>
       <c r="H85" t="n">
-        <v>9.090909090909079</v>
+        <v>1.854714064915</v>
       </c>
       <c r="I85" t="n">
-        <v>9.24</v>
+        <v>13.18</v>
       </c>
       <c r="J85" t="n">
-        <v>6.94444444444444</v>
+        <v>-3.37243401759531</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2010-01</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>32.2314049586777</v>
+        <v>2.29226361031519</v>
       </c>
       <c r="C86" t="n">
-        <v>6.4</v>
+        <v>7.14</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.466562986003112</v>
+        <v>-0.695410292072324</v>
       </c>
       <c r="E86" t="n">
-        <v>-7.53424657534246</v>
+        <v>7.7079107505071</v>
       </c>
       <c r="F86" t="n">
-        <v>4.05</v>
+        <v>5.31</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.491400491400512</v>
+        <v>0.188679245283012</v>
       </c>
       <c r="H86" t="n">
-        <v>22.2791293213829</v>
+        <v>-5.93220338983051</v>
       </c>
       <c r="I86" t="n">
-        <v>9.550000000000001</v>
+        <v>12.21</v>
       </c>
       <c r="J86" t="n">
-        <v>3.35497835497836</v>
+        <v>-1.05348460291734</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2010-02</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>31.7171717171717</v>
+        <v>-0.27972027972028</v>
       </c>
       <c r="C87" t="n">
-        <v>6.52</v>
+        <v>7.13</v>
       </c>
       <c r="D87" t="n">
-        <v>1.87499999999999</v>
+        <v>-0.14005602240897</v>
       </c>
       <c r="E87" t="n">
-        <v>-8.84955752212389</v>
+        <v>7.67676767676768</v>
       </c>
       <c r="F87" t="n">
-        <v>4.12</v>
+        <v>5.33</v>
       </c>
       <c r="G87" t="n">
-        <v>1.72839506172839</v>
+        <v>0.376647834274962</v>
       </c>
       <c r="H87" t="n">
-        <v>26.8929503916449</v>
+        <v>-5.47417116422514</v>
       </c>
       <c r="I87" t="n">
-        <v>9.720000000000001</v>
+        <v>12.26</v>
       </c>
       <c r="J87" t="n">
-        <v>1.78010471204189</v>
+        <v>0.40950040950041</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2010-03</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>26.8482490272373</v>
+        <v>-2.0775623268698</v>
       </c>
       <c r="C88" t="n">
-        <v>6.52</v>
+        <v>7.07</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>-0.841514726507711</v>
       </c>
       <c r="E88" t="n">
-        <v>-7.97266514806377</v>
+        <v>6.3745019920319</v>
       </c>
       <c r="F88" t="n">
-        <v>4.04</v>
+        <v>5.34</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.94174757281553</v>
+        <v>0.187617260788002</v>
       </c>
       <c r="H88" t="n">
-        <v>31.5718157181572</v>
+        <v>-5.70547417116423</v>
       </c>
       <c r="I88" t="n">
-        <v>9.710000000000001</v>
+        <v>12.23</v>
       </c>
       <c r="J88" t="n">
-        <v>-0.102880658436206</v>
+        <v>-0.244698205546484</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2010-04</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>24.4360902255639</v>
+        <v>6.14035087719299</v>
       </c>
       <c r="C89" t="n">
-        <v>6.62</v>
+        <v>7.26</v>
       </c>
       <c r="D89" t="n">
-        <v>1.53374233128835</v>
+        <v>0.554016620498615</v>
       </c>
       <c r="E89" t="n">
-        <v>-4.40835266821344</v>
+        <v>1.19760479041918</v>
       </c>
       <c r="F89" t="n">
-        <v>4.12</v>
+        <v>5.07</v>
       </c>
       <c r="G89" t="n">
-        <v>1.98019801980197</v>
+        <v>0.996015936255006</v>
       </c>
       <c r="H89" t="n">
-        <v>32.8804347826087</v>
+        <v>3.14712824547598</v>
       </c>
       <c r="I89" t="n">
-        <v>9.779999999999999</v>
+        <v>13.11</v>
       </c>
       <c r="J89" t="n">
-        <v>0.720906282183307</v>
+        <v>1.0794140323824</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2010-05</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>23.6794171220401</v>
+        <v>8.88554216867472</v>
       </c>
       <c r="C90" t="n">
-        <v>6.79</v>
+        <v>7.23</v>
       </c>
       <c r="D90" t="n">
-        <v>2.56797583081571</v>
+        <v>-0.413223140495859</v>
       </c>
       <c r="E90" t="n">
-        <v>4.16666666666667</v>
+        <v>2.40963855421685</v>
       </c>
       <c r="F90" t="n">
-        <v>4.25</v>
+        <v>5.1</v>
       </c>
       <c r="G90" t="n">
-        <v>3.15533980582524</v>
+        <v>0.591715976331344</v>
       </c>
       <c r="H90" t="n">
-        <v>31.1914323962517</v>
+        <v>1.80250783699061</v>
       </c>
       <c r="I90" t="n">
-        <v>9.800000000000001</v>
+        <v>12.99</v>
       </c>
       <c r="J90" t="n">
-        <v>0.204498977505125</v>
+        <v>-0.915331807780319</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2010-06</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>25.4578754578755</v>
+        <v>9.13242009132421</v>
       </c>
       <c r="C91" t="n">
-        <v>6.85</v>
+        <v>7.17</v>
       </c>
       <c r="D91" t="n">
-        <v>0.883652430044179</v>
+        <v>-0.82987551867221</v>
       </c>
       <c r="E91" t="n">
-        <v>6.42673521850898</v>
+        <v>2.81690140845072</v>
       </c>
       <c r="F91" t="n">
-        <v>4.14</v>
+        <v>5.11</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.58823529411765</v>
+        <v>0.19607843137257</v>
       </c>
       <c r="H91" t="n">
-        <v>30.718085106383</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>9.83</v>
+        <v>12.87</v>
       </c>
       <c r="J91" t="n">
-        <v>0.306122448979579</v>
+        <v>-0.923787528868374</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2010-07</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>23.6559139784946</v>
+        <v>9.422492401215811</v>
       </c>
       <c r="C92" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="D92" t="n">
-        <v>0.7299270072992809</v>
+        <v>0.418410041841</v>
       </c>
       <c r="E92" t="n">
-        <v>5.91259640102828</v>
+        <v>2.81690140845072</v>
       </c>
       <c r="F92" t="n">
-        <v>4.12</v>
+        <v>5.11</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.483091787439605</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>30.3311258278146</v>
+        <v>-2.06738131699848</v>
       </c>
       <c r="I92" t="n">
-        <v>9.84</v>
+        <v>12.79</v>
       </c>
       <c r="J92" t="n">
-        <v>0.10172939979654</v>
+        <v>-0.621600621600621</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2010-08</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>24.7311827956989</v>
+        <v>9.37972768532526</v>
       </c>
       <c r="C93" t="n">
-        <v>6.96</v>
+        <v>7.23</v>
       </c>
       <c r="D93" t="n">
-        <v>0.869565217391298</v>
+        <v>0.416666666666671</v>
       </c>
       <c r="E93" t="n">
-        <v>11.2565445026178</v>
+        <v>6.16016427104722</v>
       </c>
       <c r="F93" t="n">
-        <v>4.25</v>
+        <v>5.17</v>
       </c>
       <c r="G93" t="n">
-        <v>3.15533980582524</v>
+        <v>1.17416829745596</v>
       </c>
       <c r="H93" t="n">
-        <v>30.3030303030303</v>
+        <v>-3.70931112793339</v>
       </c>
       <c r="I93" t="n">
-        <v>9.890000000000001</v>
+        <v>12.72</v>
       </c>
       <c r="J93" t="n">
-        <v>0.50813008130082</v>
+        <v>-0.547302580140723</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2010-09</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>33.9857651245551</v>
+        <v>9.3655589123867</v>
       </c>
       <c r="C94" t="n">
-        <v>7.53</v>
+        <v>7.24</v>
       </c>
       <c r="D94" t="n">
-        <v>8.18965517241379</v>
+        <v>0.138312586445366</v>
       </c>
       <c r="E94" t="n">
-        <v>8.03108808290156</v>
+        <v>7.72442588726514</v>
       </c>
       <c r="F94" t="n">
-        <v>4.17</v>
+        <v>5.16</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.88235294117646</v>
+        <v>-0.193423597678915</v>
       </c>
       <c r="H94" t="n">
-        <v>30.3341902313625</v>
+        <v>-6.51369356032568</v>
       </c>
       <c r="I94" t="n">
-        <v>10.14</v>
+        <v>12.63</v>
       </c>
       <c r="J94" t="n">
-        <v>2.5278058645096</v>
+        <v>-0.70754716981132</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2010-10</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>59.3537414965986</v>
+        <v>6.73652694610777</v>
       </c>
       <c r="C95" t="n">
-        <v>9.369999999999999</v>
+        <v>7.13</v>
       </c>
       <c r="D95" t="n">
-        <v>24.4355909694555</v>
+        <v>-1.51933701657458</v>
       </c>
       <c r="E95" t="n">
-        <v>8.505154639175251</v>
+        <v>6.73469387755101</v>
       </c>
       <c r="F95" t="n">
-        <v>4.21</v>
+        <v>5.23</v>
       </c>
       <c r="G95" t="n">
-        <v>0.959232613908867</v>
+        <v>1.35658914728683</v>
       </c>
       <c r="H95" t="n">
-        <v>29.4631710362047</v>
+        <v>-8.73362445414848</v>
       </c>
       <c r="I95" t="n">
-        <v>10.37</v>
+        <v>12.54</v>
       </c>
       <c r="J95" t="n">
-        <v>2.26824457593686</v>
+        <v>-0.71258907363422</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2010-11</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>77.59999999999999</v>
+        <v>4.72673559822748</v>
       </c>
       <c r="C96" t="n">
-        <v>11.1</v>
+        <v>7.09</v>
       </c>
       <c r="D96" t="n">
-        <v>18.4631803628602</v>
+        <v>-0.561009817671803</v>
       </c>
       <c r="E96" t="n">
-        <v>12.5</v>
+        <v>7.34693877551018</v>
       </c>
       <c r="F96" t="n">
-        <v>4.41</v>
+        <v>5.26</v>
       </c>
       <c r="G96" t="n">
-        <v>4.75059382422802</v>
+        <v>0.573613766730404</v>
       </c>
       <c r="H96" t="n">
-        <v>24.4212962962963</v>
+        <v>-8.431085043988279</v>
       </c>
       <c r="I96" t="n">
-        <v>10.75</v>
+        <v>12.49</v>
       </c>
       <c r="J96" t="n">
-        <v>3.66441658630666</v>
+        <v>-0.398724082934592</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2010-12</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>61.4307931570762</v>
+        <v>3.75180375180378</v>
       </c>
       <c r="C97" t="n">
-        <v>10.38</v>
+        <v>7.19</v>
       </c>
       <c r="D97" t="n">
-        <v>-6.48648648648647</v>
+        <v>1.41043723554301</v>
       </c>
       <c r="E97" t="n">
-        <v>12.5307125307125</v>
+        <v>6.85483870967742</v>
       </c>
       <c r="F97" t="n">
-        <v>4.58</v>
+        <v>5.3</v>
       </c>
       <c r="G97" t="n">
-        <v>3.8548752834467</v>
+        <v>0.7604562737642619</v>
       </c>
       <c r="H97" t="n">
-        <v>17.5324675324675</v>
+        <v>-6.37329286798179</v>
       </c>
       <c r="I97" t="n">
-        <v>10.86</v>
+        <v>12.34</v>
       </c>
       <c r="J97" t="n">
-        <v>1.02325581395348</v>
+        <v>-1.20096076861489</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2011-01</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>59.375</v>
+        <v>-1.1204481792717</v>
       </c>
       <c r="C98" t="n">
-        <v>10.2</v>
+        <v>7.06</v>
       </c>
       <c r="D98" t="n">
-        <v>-1.73410404624279</v>
+        <v>-0.9817671809256719</v>
       </c>
       <c r="E98" t="n">
-        <v>10.6172839506173</v>
+        <v>1.88323917137478</v>
       </c>
       <c r="F98" t="n">
-        <v>4.48</v>
+        <v>5.41</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.18340611353712</v>
+        <v>0.932835820895519</v>
       </c>
       <c r="H98" t="n">
-        <v>14.6596858638743</v>
+        <v>-2.94840294840296</v>
       </c>
       <c r="I98" t="n">
-        <v>10.95</v>
+        <v>11.85</v>
       </c>
       <c r="J98" t="n">
-        <v>0.828729281767963</v>
+        <v>-0.336417157275022</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2011-02</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>60.4294478527608</v>
+        <v>-1.12201963534362</v>
       </c>
       <c r="C99" t="n">
-        <v>10.46</v>
+        <v>7.05</v>
       </c>
       <c r="D99" t="n">
-        <v>2.54901960784315</v>
+        <v>-0.141643059490079</v>
       </c>
       <c r="E99" t="n">
-        <v>10.4368932038835</v>
+        <v>1.12570356472794</v>
       </c>
       <c r="F99" t="n">
-        <v>4.55</v>
+        <v>5.39</v>
       </c>
       <c r="G99" t="n">
-        <v>1.56249999999997</v>
+        <v>-0.369685767097977</v>
       </c>
       <c r="H99" t="n">
-        <v>13.6831275720165</v>
+        <v>-3.42577487765089</v>
       </c>
       <c r="I99" t="n">
-        <v>11.05</v>
+        <v>11.84</v>
       </c>
       <c r="J99" t="n">
-        <v>0.913242009132432</v>
+        <v>-0.08438818565400701</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2011-03</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>64.2638036809816</v>
+        <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>10.71</v>
+        <v>7.07</v>
       </c>
       <c r="D100" t="n">
-        <v>2.39005736137668</v>
+        <v>0.283687943262407</v>
       </c>
       <c r="E100" t="n">
-        <v>14.3564356435644</v>
+        <v>1.12359550561798</v>
       </c>
       <c r="F100" t="n">
-        <v>4.62</v>
+        <v>5.4</v>
       </c>
       <c r="G100" t="n">
-        <v>1.53846153846156</v>
+        <v>0.185528756957339</v>
       </c>
       <c r="H100" t="n">
-        <v>14.5211122554068</v>
+        <v>-3.43417825020441</v>
       </c>
       <c r="I100" t="n">
-        <v>11.12</v>
+        <v>11.81</v>
       </c>
       <c r="J100" t="n">
-        <v>0.633484162895897</v>
+        <v>-0.253378378378372</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2011-04</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>58.6102719033233</v>
+        <v>-2.89256198347107</v>
       </c>
       <c r="C101" t="n">
-        <v>10.5</v>
+        <v>7.05</v>
       </c>
       <c r="D101" t="n">
-        <v>-1.9607843137255</v>
+        <v>-0.282885431400288</v>
       </c>
       <c r="E101" t="n">
-        <v>13.3495145631068</v>
+        <v>4.73372781065086</v>
       </c>
       <c r="F101" t="n">
-        <v>4.67</v>
+        <v>5.31</v>
       </c>
       <c r="G101" t="n">
-        <v>1.08225108225109</v>
+        <v>-0.561797752808985</v>
       </c>
       <c r="H101" t="n">
-        <v>17.6891615541922</v>
+        <v>-7.17009916094584</v>
       </c>
       <c r="I101" t="n">
-        <v>11.51</v>
+        <v>12.17</v>
       </c>
       <c r="J101" t="n">
-        <v>3.50719424460433</v>
+        <v>-0.490596892886359</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2011-05</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>47.1281296023564</v>
+        <v>-2.48962655601662</v>
       </c>
       <c r="C102" t="n">
-        <v>9.99</v>
+        <v>7.05</v>
       </c>
       <c r="D102" t="n">
-        <v>-4.85714285714286</v>
+        <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>9.88235294117648</v>
+        <v>4.11764705882354</v>
       </c>
       <c r="F102" t="n">
-        <v>4.67</v>
+        <v>5.31</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>24.1836734693877</v>
+        <v>-6.3125481139338</v>
       </c>
       <c r="I102" t="n">
         <v>12.17</v>
       </c>
       <c r="J102" t="n">
-        <v>5.7341442224153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2011-06</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>46.2773722627737</v>
+        <v>-1.25523012552301</v>
       </c>
       <c r="C103" t="n">
-        <v>10.02</v>
+        <v>7.08</v>
       </c>
       <c r="D103" t="n">
-        <v>0.300300300300307</v>
+        <v>0.425531914893625</v>
       </c>
       <c r="E103" t="n">
-        <v>13.2850241545894</v>
+        <v>3.71819960861055</v>
       </c>
       <c r="F103" t="n">
-        <v>4.69</v>
+        <v>5.3</v>
       </c>
       <c r="G103" t="n">
-        <v>0.428265524625274</v>
+        <v>-0.188323917137467</v>
       </c>
       <c r="H103" t="n">
-        <v>35.9104781281791</v>
+        <v>-6.13830613830612</v>
       </c>
       <c r="I103" t="n">
-        <v>13.36</v>
+        <v>12.08</v>
       </c>
       <c r="J103" t="n">
-        <v>9.77814297452753</v>
+        <v>-0.739523418241575</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2011-07</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>45.7971014492753</v>
+        <v>-1.66666666666667</v>
       </c>
       <c r="C104" t="n">
-        <v>10.06</v>
+        <v>7.08</v>
       </c>
       <c r="D104" t="n">
-        <v>0.399201596806392</v>
+        <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>15.7766990291262</v>
+        <v>4.10958904109589</v>
       </c>
       <c r="F104" t="n">
-        <v>4.77</v>
+        <v>5.32</v>
       </c>
       <c r="G104" t="n">
-        <v>1.7057569296375</v>
+        <v>0.377358490566039</v>
       </c>
       <c r="H104" t="n">
-        <v>42.7845528455285</v>
+        <v>-6.17670054730257</v>
       </c>
       <c r="I104" t="n">
-        <v>14.05</v>
+        <v>12</v>
       </c>
       <c r="J104" t="n">
-        <v>5.16467065868265</v>
+        <v>-0.662251655629149</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2011-08</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>42.0977011494253</v>
+        <v>-1.52143845089904</v>
       </c>
       <c r="C105" t="n">
-        <v>9.890000000000001</v>
+        <v>7.12</v>
       </c>
       <c r="D105" t="n">
-        <v>-1.68986083499006</v>
+        <v>0.5649717514124289</v>
       </c>
       <c r="E105" t="n">
-        <v>14.8235294117647</v>
+        <v>2.51450676982591</v>
       </c>
       <c r="F105" t="n">
-        <v>4.88</v>
+        <v>5.3</v>
       </c>
       <c r="G105" t="n">
-        <v>2.30607966457023</v>
+        <v>-0.375939849624075</v>
       </c>
       <c r="H105" t="n">
-        <v>45.803842264914</v>
+        <v>-6.28930817610063</v>
       </c>
       <c r="I105" t="n">
-        <v>14.42</v>
+        <v>11.92</v>
       </c>
       <c r="J105" t="n">
-        <v>2.63345195729536</v>
+        <v>-0.666666666666671</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2011-09</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>20.1859229747676</v>
+        <v>-0.690607734806619</v>
       </c>
       <c r="C106" t="n">
-        <v>9.050000000000001</v>
+        <v>7.19</v>
       </c>
       <c r="D106" t="n">
-        <v>-8.49342770475228</v>
+        <v>0.983146067415746</v>
       </c>
       <c r="E106" t="n">
-        <v>17.7458033573141</v>
+        <v>3.29457364341086</v>
       </c>
       <c r="F106" t="n">
-        <v>4.91</v>
+        <v>5.33</v>
       </c>
       <c r="G106" t="n">
-        <v>0.614754098360663</v>
+        <v>0.566037735849065</v>
       </c>
       <c r="H106" t="n">
-        <v>42.8994082840237</v>
+        <v>-6.09659540775931</v>
       </c>
       <c r="I106" t="n">
-        <v>14.49</v>
+        <v>11.86</v>
       </c>
       <c r="J106" t="n">
-        <v>0.485436893203882</v>
+        <v>-0.503355704697995</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2011-10</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-5.44290288153681</v>
+        <v>0.70126227208975</v>
       </c>
       <c r="C107" t="n">
-        <v>8.859999999999999</v>
+        <v>7.18</v>
       </c>
       <c r="D107" t="n">
-        <v>-2.09944751381217</v>
+        <v>-0.139082058414473</v>
       </c>
       <c r="E107" t="n">
-        <v>16.8646080760095</v>
+        <v>1.91204588910132</v>
       </c>
       <c r="F107" t="n">
-        <v>4.92</v>
+        <v>5.33</v>
       </c>
       <c r="G107" t="n">
-        <v>0.203665987780028</v>
+        <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>36.6441658630665</v>
+        <v>-5.18341307814991</v>
       </c>
       <c r="I107" t="n">
-        <v>14.17</v>
+        <v>11.89</v>
       </c>
       <c r="J107" t="n">
-        <v>-2.20841959972395</v>
+        <v>0.252951096121421</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2011-11</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-25.6756756756757</v>
+        <v>0.564174894217203</v>
       </c>
       <c r="C108" t="n">
-        <v>8.25</v>
+        <v>7.13</v>
       </c>
       <c r="D108" t="n">
-        <v>-6.88487584650113</v>
+        <v>-0.6963788300835601</v>
       </c>
       <c r="E108" t="n">
-        <v>11.1111111111111</v>
+        <v>1.90114068441065</v>
       </c>
       <c r="F108" t="n">
-        <v>4.9</v>
+        <v>5.36</v>
       </c>
       <c r="G108" t="n">
-        <v>-0.40650406504065</v>
+        <v>0.562851782363964</v>
       </c>
       <c r="H108" t="n">
-        <v>28.9302325581395</v>
+        <v>-4.56365092073659</v>
       </c>
       <c r="I108" t="n">
-        <v>13.86</v>
+        <v>11.92</v>
       </c>
       <c r="J108" t="n">
-        <v>-2.1877205363444</v>
+        <v>0.252312867956263</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2011-12</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-22.0616570327553</v>
+        <v>-0.834492350486798</v>
       </c>
       <c r="C109" t="n">
-        <v>8.09</v>
+        <v>7.13</v>
       </c>
       <c r="D109" t="n">
-        <v>-1.93939393939394</v>
+        <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>13.5371179039301</v>
+        <v>1.13207547169812</v>
       </c>
       <c r="F109" t="n">
-        <v>5.2</v>
+        <v>5.36</v>
       </c>
       <c r="G109" t="n">
-        <v>6.12244897959184</v>
+        <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>24.6777163904236</v>
+        <v>-3.64667747163695</v>
       </c>
       <c r="I109" t="n">
-        <v>13.54</v>
+        <v>11.89</v>
       </c>
       <c r="J109" t="n">
-        <v>-2.30880230880231</v>
+        <v>-0.25167785234899</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2012-01</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-21.8627450980392</v>
+        <v>-3.82436260623228</v>
       </c>
       <c r="C110" t="n">
-        <v>7.97</v>
+        <v>6.79</v>
       </c>
       <c r="D110" t="n">
-        <v>-1.48331273176761</v>
+        <v>-3.27635327635328</v>
       </c>
       <c r="E110" t="n">
-        <v>12.0535714285714</v>
+        <v>-0.184842883548981</v>
       </c>
       <c r="F110" t="n">
-        <v>5.02</v>
+        <v>5.4</v>
       </c>
       <c r="G110" t="n">
-        <v>-3.46153846153847</v>
+        <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>25.2968036529681</v>
+        <v>6.66666666666667</v>
       </c>
       <c r="I110" t="n">
-        <v>13.72</v>
+        <v>12.64</v>
       </c>
       <c r="J110" t="n">
-        <v>1.32939438700149</v>
+        <v>-0.784929356357921</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2012-02</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-24.9521988527725</v>
+        <v>-5.24822695035461</v>
       </c>
       <c r="C111" t="n">
-        <v>7.85</v>
+        <v>6.68</v>
       </c>
       <c r="D111" t="n">
-        <v>-1.50564617314932</v>
+        <v>-1.62002945508101</v>
       </c>
       <c r="E111" t="n">
-        <v>10.7692307692308</v>
+        <v>0.556586270871989</v>
       </c>
       <c r="F111" t="n">
-        <v>5.04</v>
+        <v>5.42</v>
       </c>
       <c r="G111" t="n">
-        <v>0.398406374501988</v>
+        <v>0.370370370370352</v>
       </c>
       <c r="H111" t="n">
-        <v>26.3348416289593</v>
+        <v>9.206081081081081</v>
       </c>
       <c r="I111" t="n">
-        <v>13.96</v>
+        <v>12.93</v>
       </c>
       <c r="J111" t="n">
-        <v>1.74927113702623</v>
+        <v>2.29430379746836</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2012-03</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-26.890756302521</v>
+        <v>-5.0919377652051</v>
       </c>
       <c r="C112" t="n">
-        <v>7.83</v>
+        <v>6.71</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.254777070063696</v>
+        <v>0.449101796407177</v>
       </c>
       <c r="E112" t="n">
-        <v>9.090909090909079</v>
+        <v>0.555555555555557</v>
       </c>
       <c r="F112" t="n">
-        <v>5.04</v>
+        <v>5.43</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>0.184501845018431</v>
       </c>
       <c r="H112" t="n">
-        <v>28.6870503597122</v>
+        <v>9.906858594411521</v>
       </c>
       <c r="I112" t="n">
-        <v>14.31</v>
+        <v>12.98</v>
       </c>
       <c r="J112" t="n">
-        <v>2.50716332378222</v>
+        <v>0.386697602474868</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2012-04</t>
+          <t>2019-01</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-24.3809523809524</v>
+        <v>-2.97872340425532</v>
       </c>
       <c r="C113" t="n">
-        <v>7.94</v>
+        <v>6.84</v>
       </c>
       <c r="D113" t="n">
-        <v>1.40485312899105</v>
+        <v>-3.25318246110325</v>
       </c>
       <c r="E113" t="n">
-        <v>8.99357601713062</v>
+        <v>1.88323917137478</v>
       </c>
       <c r="F113" t="n">
-        <v>5.09</v>
+        <v>5.41</v>
       </c>
       <c r="G113" t="n">
-        <v>0.992063492063494</v>
+        <v>0.185185185185176</v>
       </c>
       <c r="H113" t="n">
-        <v>26.6724587315378</v>
+        <v>-2.46507806080525</v>
       </c>
       <c r="I113" t="n">
-        <v>14.58</v>
+        <v>11.87</v>
       </c>
       <c r="J113" t="n">
-        <v>1.88679245283019</v>
+        <v>0.508044030482637</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2012-05</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-21.1211211211211</v>
+        <v>0.141843971631189</v>
       </c>
       <c r="C114" t="n">
-        <v>7.88</v>
+        <v>7.06</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.755667506297229</v>
+        <v>3.21637426900585</v>
       </c>
       <c r="E114" t="n">
-        <v>8.779443254817989</v>
+        <v>1.50659133709981</v>
       </c>
       <c r="F114" t="n">
-        <v>5.08</v>
+        <v>5.39</v>
       </c>
       <c r="G114" t="n">
-        <v>-0.196463654223962</v>
+        <v>-0.369685767097977</v>
       </c>
       <c r="H114" t="n">
-        <v>20.7066557107642</v>
+        <v>-2.87592440427279</v>
       </c>
       <c r="I114" t="n">
-        <v>14.69</v>
+        <v>11.82</v>
       </c>
       <c r="J114" t="n">
-        <v>0.754458161865571</v>
+        <v>-0.421229991575387</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2012-06</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-22.3552894211577</v>
+        <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>7.78</v>
+        <v>7.08</v>
       </c>
       <c r="D115" t="n">
-        <v>-1.26903553299492</v>
+        <v>0.283286118980186</v>
       </c>
       <c r="E115" t="n">
-        <v>8.955223880597019</v>
+        <v>1.13207547169812</v>
       </c>
       <c r="F115" t="n">
-        <v>5.11</v>
+        <v>5.36</v>
       </c>
       <c r="G115" t="n">
-        <v>0.590551181102356</v>
+        <v>-0.556586270871975</v>
       </c>
       <c r="H115" t="n">
-        <v>10.2544910179641</v>
+        <v>-1.90397350993378</v>
       </c>
       <c r="I115" t="n">
-        <v>14.73</v>
+        <v>11.85</v>
       </c>
       <c r="J115" t="n">
-        <v>0.272294077603803</v>
+        <v>0.25380710659897</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2012-07</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-22.2664015904572</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="C116" t="n">
-        <v>7.82</v>
+        <v>7.14</v>
       </c>
       <c r="D116" t="n">
-        <v>0.514138817480728</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="E116" t="n">
-        <v>5.87002096436061</v>
+        <v>0.751879699248121</v>
       </c>
       <c r="F116" t="n">
-        <v>5.05</v>
+        <v>5.36</v>
       </c>
       <c r="G116" t="n">
-        <v>-1.17416829745598</v>
+        <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>4.62633451957295</v>
+        <v>1.83333333333333</v>
       </c>
       <c r="I116" t="n">
-        <v>14.7</v>
+        <v>12.22</v>
       </c>
       <c r="J116" t="n">
-        <v>-0.203665987780042</v>
+        <v>3.12236286919831</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2012-08</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-20.2224469160768</v>
+        <v>0.280898876404478</v>
       </c>
       <c r="C117" t="n">
-        <v>7.89</v>
+        <v>7.14</v>
       </c>
       <c r="D117" t="n">
-        <v>0.89514066496163</v>
+        <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>4.71311475409837</v>
+        <v>1.32075471698114</v>
       </c>
       <c r="F117" t="n">
-        <v>5.11</v>
+        <v>5.37</v>
       </c>
       <c r="G117" t="n">
-        <v>1.1881188118812</v>
+        <v>0.18656716417911</v>
       </c>
       <c r="H117" t="n">
-        <v>1.45631067961165</v>
+        <v>4.9496644295302</v>
       </c>
       <c r="I117" t="n">
-        <v>14.63</v>
+        <v>12.51</v>
       </c>
       <c r="J117" t="n">
-        <v>-0.476190476190467</v>
+        <v>2.37315875613749</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2012-09</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-10.2762430939227</v>
+        <v>0.139082058414459</v>
       </c>
       <c r="C118" t="n">
-        <v>8.119999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="D118" t="n">
-        <v>2.91508238276299</v>
+        <v>0.840336134453779</v>
       </c>
       <c r="E118" t="n">
-        <v>5.09164969450102</v>
+        <v>1.31332082551596</v>
       </c>
       <c r="F118" t="n">
-        <v>5.16</v>
+        <v>5.4</v>
       </c>
       <c r="G118" t="n">
-        <v>0.978473581213308</v>
+        <v>0.558659217877107</v>
       </c>
       <c r="H118" t="n">
-        <v>-0.138026224982752</v>
+        <v>6.15514333895449</v>
       </c>
       <c r="I118" t="n">
-        <v>14.47</v>
+        <v>12.59</v>
       </c>
       <c r="J118" t="n">
-        <v>-1.09364319890636</v>
+        <v>0.639488409272587</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2012-10</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-8.690744920993231</v>
+        <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>8.09</v>
+        <v>7.18</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.369458128078819</v>
+        <v>-0.277777777777786</v>
       </c>
       <c r="E119" t="n">
-        <v>5.08130081300813</v>
+        <v>1.12570356472794</v>
       </c>
       <c r="F119" t="n">
-        <v>5.17</v>
+        <v>5.39</v>
       </c>
       <c r="G119" t="n">
-        <v>0.193798449612402</v>
+        <v>-0.185185185185205</v>
       </c>
       <c r="H119" t="n">
-        <v>0.211714890613976</v>
+        <v>6.98065601345668</v>
       </c>
       <c r="I119" t="n">
-        <v>14.2</v>
+        <v>12.72</v>
       </c>
       <c r="J119" t="n">
-        <v>-1.86592950932966</v>
+        <v>1.032565528197</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2012-11</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-0.9696969696969689</v>
+        <v>0.42075736325387</v>
       </c>
       <c r="C120" t="n">
-        <v>8.17</v>
+        <v>7.16</v>
       </c>
       <c r="D120" t="n">
-        <v>0.988875154511732</v>
+        <v>-0.278551532033418</v>
       </c>
       <c r="E120" t="n">
-        <v>5.91836734693878</v>
+        <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>5.19</v>
+        <v>5.36</v>
       </c>
       <c r="G120" t="n">
-        <v>0.386847195357845</v>
+        <v>-0.556586270871975</v>
       </c>
       <c r="H120" t="n">
-        <v>1.22655122655122</v>
+        <v>8.89261744966443</v>
       </c>
       <c r="I120" t="n">
-        <v>14.03</v>
+        <v>12.98</v>
       </c>
       <c r="J120" t="n">
-        <v>-1.19718309859155</v>
+        <v>2.0440251572327</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2012-12</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.988875154511732</v>
+        <v>-1.54277699859749</v>
       </c>
       <c r="C121" t="n">
-        <v>8.17</v>
+        <v>7.02</v>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>-1.95530726256983</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>0.74626865671641</v>
       </c>
       <c r="F121" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="G121" t="n">
-        <v>0.192678227360304</v>
+        <v>0.74626865671641</v>
       </c>
       <c r="H121" t="n">
-        <v>3.84047267355983</v>
+        <v>7.14886459209418</v>
       </c>
       <c r="I121" t="n">
-        <v>14.06</v>
+        <v>12.74</v>
       </c>
       <c r="J121" t="n">
-        <v>0.213827512473273</v>
+        <v>-1.84899845916794</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2013-01</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>2.7603513174404</v>
+        <v>2.06185567010309</v>
       </c>
       <c r="C122" t="n">
-        <v>8.19</v>
+        <v>6.93</v>
       </c>
       <c r="D122" t="n">
-        <v>0.244798041615653</v>
+        <v>0.726744186046503</v>
       </c>
       <c r="E122" t="n">
-        <v>4.7808764940239</v>
+        <v>4.99999999999999</v>
       </c>
       <c r="F122" t="n">
-        <v>5.26</v>
+        <v>5.67</v>
       </c>
       <c r="G122" t="n">
-        <v>1.15384615384615</v>
+        <v>0.710479573712263</v>
       </c>
       <c r="H122" t="n">
-        <v>2.69679300291546</v>
+        <v>8.86075949367088</v>
       </c>
       <c r="I122" t="n">
-        <v>14.09</v>
+        <v>13.76</v>
       </c>
       <c r="J122" t="n">
-        <v>0.213371266002852</v>
+        <v>-1.00719424460432</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2013-02</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>4.84076433121021</v>
+        <v>2.54491017964071</v>
       </c>
       <c r="C123" t="n">
-        <v>8.23</v>
+        <v>6.85</v>
       </c>
       <c r="D123" t="n">
-        <v>0.488400488400515</v>
+        <v>-1.15440115440116</v>
       </c>
       <c r="E123" t="n">
-        <v>5.15873015873017</v>
+        <v>5.35055350553506</v>
       </c>
       <c r="F123" t="n">
-        <v>5.3</v>
+        <v>5.71</v>
       </c>
       <c r="G123" t="n">
-        <v>0.7604562737642619</v>
+        <v>0.705467372134038</v>
       </c>
       <c r="H123" t="n">
-        <v>0.501432664756436</v>
+        <v>6.34184068058778</v>
       </c>
       <c r="I123" t="n">
-        <v>14.03</v>
+        <v>13.75</v>
       </c>
       <c r="J123" t="n">
-        <v>-0.42583392476935</v>
+        <v>-0.072674418604649</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2013-03</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>3.19284802043423</v>
+        <v>2.38450074515649</v>
       </c>
       <c r="C124" t="n">
-        <v>8.08</v>
+        <v>6.87</v>
       </c>
       <c r="D124" t="n">
-        <v>-1.82260024301337</v>
+        <v>0.291970802919721</v>
       </c>
       <c r="E124" t="n">
-        <v>6.74603174603175</v>
+        <v>6.07734806629834</v>
       </c>
       <c r="F124" t="n">
-        <v>5.38</v>
+        <v>5.76</v>
       </c>
       <c r="G124" t="n">
-        <v>1.50943396226415</v>
+        <v>0.8756567425569129</v>
       </c>
       <c r="H124" t="n">
-        <v>-2.58560447239692</v>
+        <v>5.93220338983052</v>
       </c>
       <c r="I124" t="n">
-        <v>13.94</v>
+        <v>13.75</v>
       </c>
       <c r="J124" t="n">
-        <v>-0.641482537419819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2013-04</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1.13350125944582</v>
+        <v>-0.730994152046776</v>
       </c>
       <c r="C125" t="n">
-        <v>8.029999999999999</v>
+        <v>6.79</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.618811881188137</v>
+        <v>1.19225037257824</v>
       </c>
       <c r="E125" t="n">
-        <v>6.286836935167</v>
+        <v>-0.369685767097977</v>
       </c>
       <c r="F125" t="n">
-        <v>5.41</v>
+        <v>5.39</v>
       </c>
       <c r="G125" t="n">
-        <v>0.557620817843869</v>
+        <v>-0.7366482504604051</v>
       </c>
       <c r="H125" t="n">
-        <v>-5.34979423868313</v>
+        <v>10.7834877843302</v>
       </c>
       <c r="I125" t="n">
-        <v>13.8</v>
+        <v>13.15</v>
       </c>
       <c r="J125" t="n">
-        <v>-1.00430416068865</v>
+        <v>1.30970724191064</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2013-05</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1.90355329949239</v>
+        <v>-1.55807365439092</v>
       </c>
       <c r="C126" t="n">
-        <v>8.029999999999999</v>
+        <v>6.95</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>2.35640648011781</v>
       </c>
       <c r="E126" t="n">
-        <v>3.34645669291338</v>
+        <v>2.41187384044528</v>
       </c>
       <c r="F126" t="n">
-        <v>5.25</v>
+        <v>5.52</v>
       </c>
       <c r="G126" t="n">
-        <v>-2.95748613678374</v>
+        <v>2.41187384044528</v>
       </c>
       <c r="H126" t="n">
-        <v>-7.89652825051054</v>
+        <v>12.7749576988156</v>
       </c>
       <c r="I126" t="n">
-        <v>13.53</v>
+        <v>13.33</v>
       </c>
       <c r="J126" t="n">
-        <v>-1.95652173913045</v>
+        <v>1.36882129277566</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2013-06</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>3.08483290488431</v>
+        <v>-2.11864406779661</v>
       </c>
       <c r="C127" t="n">
-        <v>8.02</v>
+        <v>6.93</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.124533001245325</v>
+        <v>-0.287769784172667</v>
       </c>
       <c r="E127" t="n">
-        <v>2.15264187866926</v>
+        <v>3.17164179104476</v>
       </c>
       <c r="F127" t="n">
-        <v>5.22</v>
+        <v>5.53</v>
       </c>
       <c r="G127" t="n">
-        <v>-0.5714285714285841</v>
+        <v>0.181159420289873</v>
       </c>
       <c r="H127" t="n">
-        <v>-10.2511880515954</v>
+        <v>14.1772151898734</v>
       </c>
       <c r="I127" t="n">
-        <v>13.22</v>
+        <v>13.53</v>
       </c>
       <c r="J127" t="n">
-        <v>-2.29120473022911</v>
+        <v>1.50037509377343</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2013-07</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>2.94117647058825</v>
+        <v>-4.06162464985994</v>
       </c>
       <c r="C128" t="n">
-        <v>8.050000000000001</v>
+        <v>6.85</v>
       </c>
       <c r="D128" t="n">
-        <v>0.374064837905252</v>
+        <v>-1.15440115440116</v>
       </c>
       <c r="E128" t="n">
-        <v>4.15841584158416</v>
+        <v>3.17164179104476</v>
       </c>
       <c r="F128" t="n">
-        <v>5.26</v>
+        <v>5.53</v>
       </c>
       <c r="G128" t="n">
-        <v>0.766283524904225</v>
+        <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>-10.4081632653061</v>
+        <v>16.20294599018</v>
       </c>
       <c r="I128" t="n">
-        <v>13.17</v>
+        <v>14.2</v>
       </c>
       <c r="J128" t="n">
-        <v>-0.378214826021178</v>
+        <v>4.9519586104952</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2013-08</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1.90114068441063</v>
+        <v>-4.06162464985994</v>
       </c>
       <c r="C129" t="n">
-        <v>8.039999999999999</v>
+        <v>6.85</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.124223602484491</v>
+        <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>3.71819960861055</v>
+        <v>2.42085661080074</v>
       </c>
       <c r="F129" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="G129" t="n">
-        <v>0.7604562737642619</v>
+        <v>-0.542495479204348</v>
       </c>
       <c r="H129" t="n">
-        <v>-9.91114149008887</v>
+        <v>14.4684252597922</v>
       </c>
       <c r="I129" t="n">
-        <v>13.18</v>
+        <v>14.32</v>
       </c>
       <c r="J129" t="n">
-        <v>0.075930144267275</v>
+        <v>0.845070422535215</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2013-09</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>2.83251231527095</v>
+        <v>-4.86111111111111</v>
       </c>
       <c r="C130" t="n">
-        <v>8.35</v>
+        <v>6.85</v>
       </c>
       <c r="D130" t="n">
-        <v>3.85572139303483</v>
+        <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>3.48837209302324</v>
+        <v>2.40740740740742</v>
       </c>
       <c r="F130" t="n">
-        <v>5.34</v>
+        <v>5.53</v>
       </c>
       <c r="G130" t="n">
-        <v>0.754716981132077</v>
+        <v>0.545454545454561</v>
       </c>
       <c r="H130" t="n">
-        <v>-10.0207325501037</v>
+        <v>13.6616362192216</v>
       </c>
       <c r="I130" t="n">
-        <v>13.02</v>
+        <v>14.31</v>
       </c>
       <c r="J130" t="n">
-        <v>-1.21396054628224</v>
+        <v>-0.06983240223463801</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2013-10</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>3.58467243510508</v>
+        <v>-4.59610027855153</v>
       </c>
       <c r="C131" t="n">
-        <v>8.380000000000001</v>
+        <v>6.85</v>
       </c>
       <c r="D131" t="n">
-        <v>0.359281437125759</v>
+        <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>4.25531914893618</v>
+        <v>3.33951762523192</v>
       </c>
       <c r="F131" t="n">
-        <v>5.39</v>
+        <v>5.57</v>
       </c>
       <c r="G131" t="n">
-        <v>0.936329588014971</v>
+        <v>0.723327305605778</v>
       </c>
       <c r="H131" t="n">
-        <v>-10</v>
+        <v>12.1069182389937</v>
       </c>
       <c r="I131" t="n">
-        <v>12.78</v>
+        <v>14.26</v>
       </c>
       <c r="J131" t="n">
-        <v>-1.84331797235023</v>
+        <v>-0.349406009783365</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2013-11</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>3.18237454100367</v>
+        <v>-3.91061452513966</v>
       </c>
       <c r="C132" t="n">
-        <v>8.43</v>
+        <v>6.88</v>
       </c>
       <c r="D132" t="n">
-        <v>0.596658711217174</v>
+        <v>0.43795620437956</v>
       </c>
       <c r="E132" t="n">
-        <v>4.43159922928709</v>
+        <v>4.85074626865671</v>
       </c>
       <c r="F132" t="n">
-        <v>5.42</v>
+        <v>5.62</v>
       </c>
       <c r="G132" t="n">
-        <v>0.556586270871989</v>
+        <v>0.89766606822262</v>
       </c>
       <c r="H132" t="n">
-        <v>-10.0498930862438</v>
+        <v>10.5546995377504</v>
       </c>
       <c r="I132" t="n">
-        <v>12.62</v>
+        <v>14.35</v>
       </c>
       <c r="J132" t="n">
-        <v>-1.25195618153364</v>
+        <v>0.63113604488079</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2013-12</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>3.05997552019583</v>
+        <v>-1.99430199430199</v>
       </c>
       <c r="C133" t="n">
-        <v>8.42</v>
+        <v>6.88</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.118623962040331</v>
+        <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>4.03846153846155</v>
+        <v>4.25925925925925</v>
       </c>
       <c r="F133" t="n">
-        <v>5.41</v>
+        <v>5.63</v>
       </c>
       <c r="G133" t="n">
-        <v>-0.184501845018445</v>
+        <v>0.177935943060504</v>
       </c>
       <c r="H133" t="n">
-        <v>-11.3086770981508</v>
+        <v>9.105180533751961</v>
       </c>
       <c r="I133" t="n">
-        <v>12.47</v>
+        <v>13.9</v>
       </c>
       <c r="J133" t="n">
-        <v>-1.18858954041204</v>
+        <v>-3.13588850174216</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2014-01</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1.83150183150182</v>
+        <v>11.8326118326</v>
       </c>
       <c r="C134" t="n">
-        <v>8.34</v>
+        <v>7.75</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.950118764845612</v>
+        <v>4.3068640646</v>
       </c>
       <c r="E134" t="n">
-        <v>3.42205323193919</v>
+        <v>5.114638448</v>
       </c>
       <c r="F134" t="n">
-        <v>5.44</v>
+        <v>5.96</v>
       </c>
       <c r="G134" t="n">
-        <v>0.554528650646958</v>
+        <v>0.5059021922</v>
       </c>
       <c r="H134" t="n">
-        <v>-13.4137686302342</v>
+        <v>-0.8720930233</v>
       </c>
       <c r="I134" t="n">
-        <v>12.2</v>
+        <v>13.64</v>
       </c>
       <c r="J134" t="n">
-        <v>-2.16519647153169</v>
+        <v>-0.07326007330000001</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2014-02</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.364520048602657</v>
+        <v>15.6204379562</v>
       </c>
       <c r="C135" t="n">
-        <v>8.26</v>
+        <v>7.92</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.959232613908881</v>
+        <v>2.1935483871</v>
       </c>
       <c r="E135" t="n">
-        <v>2.26415094339623</v>
+        <v>5.6042031524</v>
       </c>
       <c r="F135" t="n">
-        <v>5.42</v>
+        <v>6.03</v>
       </c>
       <c r="G135" t="n">
-        <v>-0.367647058823536</v>
+        <v>1.1744966443</v>
       </c>
       <c r="H135" t="n">
-        <v>-14.8253741981468</v>
+        <v>-0.3636363636</v>
       </c>
       <c r="I135" t="n">
-        <v>11.95</v>
+        <v>13.7</v>
       </c>
       <c r="J135" t="n">
-        <v>-2.04918032786885</v>
+        <v>0.4398826979</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2014-03</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>2.35148514851484</v>
+        <v>16.5938864629</v>
       </c>
       <c r="C136" t="n">
-        <v>8.27</v>
+        <v>8.01</v>
       </c>
       <c r="D136" t="n">
-        <v>0.121065375302649</v>
+        <v>1.1363636364</v>
       </c>
       <c r="E136" t="n">
-        <v>0.371747211895922</v>
+        <v>4.3402777778</v>
       </c>
       <c r="F136" t="n">
-        <v>5.4</v>
+        <v>6.01</v>
       </c>
       <c r="G136" t="n">
-        <v>-0.369003690036891</v>
+        <v>-0.3316749585</v>
       </c>
       <c r="H136" t="n">
-        <v>-15.9253945480631</v>
+        <v>-0.9454545455</v>
       </c>
       <c r="I136" t="n">
-        <v>11.72</v>
+        <v>13.62</v>
       </c>
       <c r="J136" t="n">
-        <v>-1.9246861924686</v>
+        <v>-0.5839416058</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2014-04</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>2.98879202988793</v>
+        <v>2.06185567010309</v>
       </c>
       <c r="C137" t="n">
-        <v>8.27</v>
+        <v>6.93</v>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>0.873362445414855</v>
       </c>
       <c r="E137" t="n">
-        <v>-0.554528650646958</v>
+        <v>7.60667903525048</v>
       </c>
       <c r="F137" t="n">
-        <v>5.38</v>
+        <v>5.8</v>
       </c>
       <c r="G137" t="n">
-        <v>-0.370370370370381</v>
+        <v>0.694444444444443</v>
       </c>
       <c r="H137" t="n">
-        <v>-15.9420289855072</v>
+        <v>5.55133079847909</v>
       </c>
       <c r="I137" t="n">
-        <v>11.6</v>
+        <v>13.88</v>
       </c>
       <c r="J137" t="n">
-        <v>-1.02389078498294</v>
+        <v>0.945454545454567</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2014-05</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>3.48692403486925</v>
+        <v>-0.719424460431654</v>
       </c>
       <c r="C138" t="n">
-        <v>8.31</v>
+        <v>6.9</v>
       </c>
       <c r="D138" t="n">
-        <v>0.483675937122129</v>
+        <v>-0.432900432900425</v>
       </c>
       <c r="E138" t="n">
-        <v>0.761904761904759</v>
+        <v>4.52898550724639</v>
       </c>
       <c r="F138" t="n">
-        <v>5.29</v>
+        <v>5.77</v>
       </c>
       <c r="G138" t="n">
-        <v>-1.67286245353159</v>
+        <v>-0.517241379310349</v>
       </c>
       <c r="H138" t="n">
-        <v>-13.1559497413156</v>
+        <v>4.87621905476369</v>
       </c>
       <c r="I138" t="n">
-        <v>11.75</v>
+        <v>13.98</v>
       </c>
       <c r="J138" t="n">
-        <v>1.29310344827587</v>
+        <v>0.720461095100859</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2014-06</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>3.36658354114712</v>
+        <v>0.432900432900425</v>
       </c>
       <c r="C139" t="n">
-        <v>8.289999999999999</v>
+        <v>6.96</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.240673886883286</v>
+        <v>0.869565217391298</v>
       </c>
       <c r="E139" t="n">
-        <v>0.191570881226085</v>
+        <v>4.70162748643762</v>
       </c>
       <c r="F139" t="n">
-        <v>5.23</v>
+        <v>5.79</v>
       </c>
       <c r="G139" t="n">
-        <v>-1.13421550094517</v>
+        <v>0.346620450606579</v>
       </c>
       <c r="H139" t="n">
-        <v>-11.1195158850227</v>
+        <v>3.32594235033261</v>
       </c>
       <c r="I139" t="n">
-        <v>11.75</v>
+        <v>13.98</v>
       </c>
       <c r="J139" t="n">
         <v>0</v>
@@ -5175,3061 +5175,851 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2014-07</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>2.85714285714285</v>
+        <v>7.5912408759124</v>
       </c>
       <c r="C140" t="n">
-        <v>8.279999999999999</v>
+        <v>7.37</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.120627261761157</v>
+        <v>5.89080459770115</v>
       </c>
       <c r="E140" t="n">
-        <v>0.190114068441048</v>
+        <v>4.70162748643762</v>
       </c>
       <c r="F140" t="n">
-        <v>5.27</v>
+        <v>5.79</v>
       </c>
       <c r="G140" t="n">
-        <v>0.764818355640529</v>
+        <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>-10.8580106302202</v>
+        <v>-1.83098591549296</v>
       </c>
       <c r="I140" t="n">
-        <v>11.74</v>
+        <v>13.94</v>
       </c>
       <c r="J140" t="n">
-        <v>-0.085106382978722</v>
+        <v>-0.286123032904158</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2014-08</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.99502487562188</v>
+        <v>7.15328467153284</v>
       </c>
       <c r="C141" t="n">
-        <v>8.119999999999999</v>
+        <v>7.34</v>
       </c>
       <c r="D141" t="n">
-        <v>-1.93236714975845</v>
+        <v>-0.407055630936227</v>
       </c>
       <c r="E141" t="n">
-        <v>-0.188679245283012</v>
+        <v>7.09090909090908</v>
       </c>
       <c r="F141" t="n">
-        <v>5.29</v>
+        <v>5.89</v>
       </c>
       <c r="G141" t="n">
-        <v>0.379506641366234</v>
+        <v>1.72711571675302</v>
       </c>
       <c r="H141" t="n">
-        <v>-9.939301972685881</v>
+        <v>-3.28212290502793</v>
       </c>
       <c r="I141" t="n">
-        <v>11.87</v>
+        <v>13.85</v>
       </c>
       <c r="J141" t="n">
-        <v>1.10732538330494</v>
+        <v>-0.645624103299852</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2014-09</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-3.47305389221556</v>
+        <v>7.15328467153284</v>
       </c>
       <c r="C142" t="n">
-        <v>8.06</v>
+        <v>7.34</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.738916256157623</v>
+        <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>-0.561797752808985</v>
+        <v>7.05244122965641</v>
       </c>
       <c r="F142" t="n">
-        <v>5.31</v>
+        <v>5.92</v>
       </c>
       <c r="G142" t="n">
-        <v>0.378071833648377</v>
+        <v>0.509337860780974</v>
       </c>
       <c r="H142" t="n">
-        <v>-8.448540706605231</v>
+        <v>-3.84346610761706</v>
       </c>
       <c r="I142" t="n">
-        <v>11.92</v>
+        <v>13.76</v>
       </c>
       <c r="J142" t="n">
-        <v>0.421229991575416</v>
+        <v>-0.649819494584833</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2014-10</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-11.8138424821002</v>
+        <v>8.467153284671539</v>
       </c>
       <c r="C143" t="n">
-        <v>7.39</v>
+        <v>7.43</v>
       </c>
       <c r="D143" t="n">
-        <v>-8.31265508684864</v>
+        <v>1.22615803814713</v>
       </c>
       <c r="E143" t="n">
-        <v>-1.48423005565863</v>
+        <v>5.74506283662477</v>
       </c>
       <c r="F143" t="n">
-        <v>5.31</v>
+        <v>5.89</v>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>-0.506756756756772</v>
       </c>
       <c r="H143" t="n">
-        <v>-6.25978090766822</v>
+        <v>-4.20757363253857</v>
       </c>
       <c r="I143" t="n">
-        <v>11.98</v>
+        <v>13.66</v>
       </c>
       <c r="J143" t="n">
-        <v>0.503355704697995</v>
+        <v>-0.726744186046517</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2014-11</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-16.3701067615658</v>
+        <v>7.4127906977</v>
       </c>
       <c r="C144" t="n">
-        <v>7.05</v>
+        <v>7.39</v>
       </c>
       <c r="D144" t="n">
-        <v>-4.60081190798375</v>
+        <v>-0.5383580081</v>
       </c>
       <c r="E144" t="n">
-        <v>-1.29151291512916</v>
+        <v>4.8042704626</v>
       </c>
       <c r="F144" t="n">
-        <v>5.35</v>
+        <v>5.89</v>
       </c>
       <c r="G144" t="n">
-        <v>0.75329566854991</v>
+        <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>-2.93185419968303</v>
+        <v>-5.0174216028</v>
       </c>
       <c r="I144" t="n">
-        <v>12.25</v>
+        <v>13.63</v>
       </c>
       <c r="J144" t="n">
-        <v>2.25375626043404</v>
+        <v>-0.2196193265</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2014-12</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-17.458432304038</v>
+        <v>7.9941860465</v>
       </c>
       <c r="C145" t="n">
-        <v>6.95</v>
+        <v>7.43</v>
       </c>
       <c r="D145" t="n">
-        <v>-1.41843971631205</v>
+        <v>0.5412719892</v>
       </c>
       <c r="E145" t="n">
-        <v>-0.7393715341959251</v>
+        <v>5.3285968028</v>
       </c>
       <c r="F145" t="n">
-        <v>5.37</v>
+        <v>5.93</v>
       </c>
       <c r="G145" t="n">
-        <v>0.373831775700936</v>
+        <v>0.6791171477</v>
       </c>
       <c r="H145" t="n">
-        <v>1.44346431435444</v>
+        <v>-1.7985611511</v>
       </c>
       <c r="I145" t="n">
-        <v>12.65</v>
+        <v>13.65</v>
       </c>
       <c r="J145" t="n">
-        <v>3.26530612244898</v>
+        <v>0.1467351431</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2015-01</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-17.1462829736211</v>
+        <v>1.935483871</v>
       </c>
       <c r="C146" t="n">
-        <v>6.91</v>
+        <v>7.9</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.575539568345334</v>
+        <v>-4.2424242424</v>
       </c>
       <c r="E146" t="n">
-        <v>-1.10294117647059</v>
+        <v>6.2080536913</v>
       </c>
       <c r="F146" t="n">
-        <v>5.38</v>
+        <v>6.33</v>
       </c>
       <c r="G146" t="n">
-        <v>0.186219739292355</v>
+        <v>0.1582278481</v>
       </c>
       <c r="H146" t="n">
-        <v>5.24590163934427</v>
+        <v>3.0791788856</v>
       </c>
       <c r="I146" t="n">
-        <v>12.84</v>
+        <v>14.06</v>
       </c>
       <c r="J146" t="n">
-        <v>1.50197628458497</v>
+        <v>1.5162454874</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2015-02</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-16.5859564164649</v>
+        <v>-1.2626262626</v>
       </c>
       <c r="C147" t="n">
-        <v>6.89</v>
+        <v>7.82</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.289435600578884</v>
+        <v>-1.0126582278</v>
       </c>
       <c r="E147" t="n">
-        <v>-0.5535055350553511</v>
+        <v>4.6434494196</v>
       </c>
       <c r="F147" t="n">
-        <v>5.39</v>
+        <v>6.31</v>
       </c>
       <c r="G147" t="n">
-        <v>0.185873605947947</v>
+        <v>-0.3159557662</v>
       </c>
       <c r="H147" t="n">
-        <v>8.87029288702929</v>
+        <v>3.7226277372</v>
       </c>
       <c r="I147" t="n">
-        <v>13.01</v>
+        <v>14.21</v>
       </c>
       <c r="J147" t="n">
-        <v>1.32398753894081</v>
+        <v>1.06685633</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2015-03</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-16.2031438935913</v>
+        <v>-2.3720349563</v>
       </c>
       <c r="C148" t="n">
-        <v>6.93</v>
+        <v>7.82</v>
       </c>
       <c r="D148" t="n">
-        <v>0.580551523947761</v>
+        <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>-0.740740740740748</v>
+        <v>6.15640599</v>
       </c>
       <c r="F148" t="n">
-        <v>5.36</v>
+        <v>6.38</v>
       </c>
       <c r="G148" t="n">
-        <v>-0.556586270871975</v>
+        <v>1.1093502377</v>
       </c>
       <c r="H148" t="n">
-        <v>10.6655290102389</v>
+        <v>4.3318649046</v>
       </c>
       <c r="I148" t="n">
-        <v>12.97</v>
+        <v>14.21</v>
       </c>
       <c r="J148" t="n">
-        <v>-0.307455803228279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2015-04</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-16.807738814994</v>
+        <v>19.4805194805</v>
       </c>
       <c r="C149" t="n">
-        <v>6.88</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.721500721500718</v>
+        <v>3.3707865169</v>
       </c>
       <c r="E149" t="n">
-        <v>-1.3011152416357</v>
+        <v>3.4482758621</v>
       </c>
       <c r="F149" t="n">
-        <v>5.31</v>
+        <v>6</v>
       </c>
       <c r="G149" t="n">
-        <v>-0.932835820895534</v>
+        <v>-0.1663893511</v>
       </c>
       <c r="H149" t="n">
-        <v>12.2413793103448</v>
+        <v>-1.8731988473</v>
       </c>
       <c r="I149" t="n">
-        <v>13.02</v>
+        <v>13.62</v>
       </c>
       <c r="J149" t="n">
-        <v>0.38550501156513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2015-05</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-16.9675090252708</v>
+        <v>20.4347826087</v>
       </c>
       <c r="C150" t="n">
-        <v>6.9</v>
+        <v>8.31</v>
       </c>
       <c r="D150" t="n">
-        <v>0.29069767441861</v>
+        <v>0.3623188406</v>
       </c>
       <c r="E150" t="n">
-        <v>-2.64650283553874</v>
+        <v>4.1594454073</v>
       </c>
       <c r="F150" t="n">
-        <v>5.15</v>
+        <v>6.01</v>
       </c>
       <c r="G150" t="n">
-        <v>-3.01318267419961</v>
+        <v>0.1666666667</v>
       </c>
       <c r="H150" t="n">
-        <v>10.9787234042553</v>
+        <v>-3.5050071531</v>
       </c>
       <c r="I150" t="n">
-        <v>13.04</v>
+        <v>13.49</v>
       </c>
       <c r="J150" t="n">
-        <v>0.153609831029186</v>
+        <v>-0.9544787078</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2015-06</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-17.1290711700844</v>
+        <v>19.3965517241</v>
       </c>
       <c r="C151" t="n">
-        <v>6.87</v>
+        <v>8.31</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.434782608695656</v>
+        <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>-2.67686424474188</v>
+        <v>3.2815198618</v>
       </c>
       <c r="F151" t="n">
-        <v>5.09</v>
+        <v>5.98</v>
       </c>
       <c r="G151" t="n">
-        <v>-1.16504854368932</v>
+        <v>-0.4991680532</v>
       </c>
       <c r="H151" t="n">
-        <v>10.6382978723404</v>
+        <v>-3.791130186</v>
       </c>
       <c r="I151" t="n">
-        <v>13</v>
+        <v>13.45</v>
       </c>
       <c r="J151" t="n">
-        <v>-0.306748466257673</v>
+        <v>-0.2965159377</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2015-07</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-17.8743961352657</v>
+        <v>10.447761194</v>
       </c>
       <c r="C152" t="n">
-        <v>6.8</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="D152" t="n">
-        <v>-1.01892285298399</v>
+        <v>-2.0457280385</v>
       </c>
       <c r="E152" t="n">
-        <v>-3.2258064516129</v>
+        <v>4.1450777202</v>
       </c>
       <c r="F152" t="n">
-        <v>5.1</v>
+        <v>6.03</v>
       </c>
       <c r="G152" t="n">
-        <v>0.196463654223962</v>
+        <v>0.8361204013</v>
       </c>
       <c r="H152" t="n">
-        <v>11.4139693356048</v>
+        <v>-3.299856528</v>
       </c>
       <c r="I152" t="n">
-        <v>13.08</v>
+        <v>13.48</v>
       </c>
       <c r="J152" t="n">
-        <v>0.615384615384613</v>
+        <v>0.2230483271</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2015-08</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-17.1182266009852</v>
+        <v>14.5776566757</v>
       </c>
       <c r="C153" t="n">
-        <v>6.73</v>
+        <v>8.41</v>
       </c>
       <c r="D153" t="n">
-        <v>-1.02941176470588</v>
+        <v>3.316953317</v>
       </c>
       <c r="E153" t="n">
-        <v>-4.53686200378071</v>
+        <v>5.0933786078</v>
       </c>
       <c r="F153" t="n">
-        <v>5.05</v>
+        <v>6.19</v>
       </c>
       <c r="G153" t="n">
-        <v>-0.980392156862735</v>
+        <v>2.6533996683</v>
       </c>
       <c r="H153" t="n">
-        <v>11.0362257792755</v>
+        <v>-1.7328519856</v>
       </c>
       <c r="I153" t="n">
-        <v>13.18</v>
+        <v>13.61</v>
       </c>
       <c r="J153" t="n">
-        <v>0.7645259938837941</v>
+        <v>0.9643916914</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2015-09</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-15.75682382134</v>
+        <v>15.12</v>
       </c>
       <c r="C154" t="n">
-        <v>6.79</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="D154" t="n">
-        <v>0.891530460624068</v>
+        <v>0.48</v>
       </c>
       <c r="E154" t="n">
-        <v>-2.63653483992466</v>
+        <v>6.08</v>
       </c>
       <c r="F154" t="n">
-        <v>5.17</v>
+        <v>6.28</v>
       </c>
       <c r="G154" t="n">
-        <v>2.37623762376238</v>
+        <v>1.45</v>
       </c>
       <c r="H154" t="n">
-        <v>8.55704697986577</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="I154" t="n">
-        <v>12.94</v>
+        <v>13.63</v>
       </c>
       <c r="J154" t="n">
-        <v>-1.82094081942337</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2015-10</t>
+          <t>2022-07</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-9.60757780784844</v>
+        <v>13.06</v>
       </c>
       <c r="C155" t="n">
-        <v>6.68</v>
+        <v>8.4</v>
       </c>
       <c r="D155" t="n">
-        <v>-1.62002945508101</v>
+        <v>-0.5917159762999999</v>
       </c>
       <c r="E155" t="n">
-        <v>-3.20150659133709</v>
+        <v>6.28</v>
       </c>
       <c r="F155" t="n">
-        <v>5.14</v>
+        <v>6.26</v>
       </c>
       <c r="G155" t="n">
-        <v>-0.580270793036746</v>
+        <v>-0.3184713376</v>
       </c>
       <c r="H155" t="n">
-        <v>6.51085141903171</v>
+        <v>-0.22</v>
       </c>
       <c r="I155" t="n">
-        <v>12.76</v>
+        <v>13.63</v>
       </c>
       <c r="J155" t="n">
-        <v>-1.39103554868623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2015-11</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-8.51063829787233</v>
+        <v>12.3139377537</v>
       </c>
       <c r="C156" t="n">
-        <v>6.45</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D156" t="n">
-        <v>-3.44311377245509</v>
+        <v>-1.1904761905</v>
       </c>
       <c r="E156" t="n">
-        <v>-4.29906542056074</v>
+        <v>6.7911714771</v>
       </c>
       <c r="F156" t="n">
-        <v>5.12</v>
+        <v>6.29</v>
       </c>
       <c r="G156" t="n">
-        <v>-0.389105058365743</v>
+        <v>0.4792332268</v>
       </c>
       <c r="H156" t="n">
-        <v>3.51020408163265</v>
+        <v>0.5869405723</v>
       </c>
       <c r="I156" t="n">
-        <v>12.68</v>
+        <v>13.71</v>
       </c>
       <c r="J156" t="n">
-        <v>-0.626959247648912</v>
+        <v>0.5869405723</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2015-12</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-6.18705035971225</v>
+        <v>11.0363391655</v>
       </c>
       <c r="C157" t="n">
-        <v>6.52</v>
+        <v>8.25</v>
       </c>
       <c r="D157" t="n">
-        <v>1.08527131782945</v>
+        <v>-0.6024096386</v>
       </c>
       <c r="E157" t="n">
-        <v>-4.2830540037244</v>
+        <v>6.5767284992</v>
       </c>
       <c r="F157" t="n">
-        <v>5.14</v>
+        <v>6.32</v>
       </c>
       <c r="G157" t="n">
-        <v>0.390625</v>
+        <v>0.4769475358</v>
       </c>
       <c r="H157" t="n">
-        <v>-0.158102766798422</v>
+        <v>1.4652014652</v>
       </c>
       <c r="I157" t="n">
-        <v>12.63</v>
+        <v>13.85</v>
       </c>
       <c r="J157" t="n">
-        <v>-0.394321766561504</v>
+        <v>1.0211524435</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2016-01</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-1.01302460202606</v>
+        <v>-6.4009661836</v>
       </c>
       <c r="C158" t="n">
-        <v>6.84</v>
+        <v>7.75</v>
       </c>
       <c r="D158" t="n">
-        <v>4.9079754601227</v>
+        <v>-0.895140665</v>
       </c>
       <c r="E158" t="n">
-        <v>-6.87732342007436</v>
+        <v>6.1666666667</v>
       </c>
       <c r="F158" t="n">
-        <v>5.01</v>
+        <v>6.37</v>
       </c>
       <c r="G158" t="n">
-        <v>-2.52918287937743</v>
+        <v>-0.1567398119</v>
       </c>
       <c r="H158" t="n">
-        <v>-1.01246105919003</v>
+        <v>5.3597650514</v>
       </c>
       <c r="I158" t="n">
-        <v>12.71</v>
+        <v>14.35</v>
       </c>
       <c r="J158" t="n">
-        <v>0.633412509897084</v>
+        <v>0.9852216749</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2016-02</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-3.62844702467345</v>
+        <v>-7.8219013237</v>
       </c>
       <c r="C159" t="n">
-        <v>6.64</v>
+        <v>7.66</v>
       </c>
       <c r="D159" t="n">
-        <v>-2.92397660818715</v>
+        <v>-1.1612903226</v>
       </c>
       <c r="E159" t="n">
-        <v>-7.60667903525045</v>
+        <v>7.1547420965</v>
       </c>
       <c r="F159" t="n">
-        <v>4.98</v>
+        <v>6.44</v>
       </c>
       <c r="G159" t="n">
-        <v>-0.59880239520956</v>
+        <v>1.0989010989</v>
       </c>
       <c r="H159" t="n">
-        <v>-1.92159877017679</v>
+        <v>6.671608599</v>
       </c>
       <c r="I159" t="n">
-        <v>12.76</v>
+        <v>14.39</v>
       </c>
       <c r="J159" t="n">
-        <v>0.393391030684498</v>
+        <v>0.2787456446</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2016-03</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-5.19480519480518</v>
+        <v>-6.8592057762</v>
       </c>
       <c r="C160" t="n">
-        <v>6.57</v>
+        <v>7.74</v>
       </c>
       <c r="D160" t="n">
-        <v>-1.05421686746988</v>
+        <v>1.044386423</v>
       </c>
       <c r="E160" t="n">
-        <v>-7.27611940298509</v>
+        <v>7.525083612</v>
       </c>
       <c r="F160" t="n">
-        <v>4.97</v>
+        <v>6.43</v>
       </c>
       <c r="G160" t="n">
-        <v>-0.200803212851426</v>
+        <v>-0.1552795031</v>
       </c>
       <c r="H160" t="n">
-        <v>-0.771010023130316</v>
+        <v>8.4014869888</v>
       </c>
       <c r="I160" t="n">
-        <v>12.87</v>
+        <v>14.58</v>
       </c>
       <c r="J160" t="n">
-        <v>0.862068965517238</v>
+        <v>1.3203613621</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2016-04</t>
+          <t>2023-04</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-4.36046511627907</v>
+        <v>-6.6339066339</v>
       </c>
       <c r="C161" t="n">
-        <v>6.58</v>
+        <v>7.6</v>
       </c>
       <c r="D161" t="n">
-        <v>0.152207001522072</v>
+        <v>-1.8087855297</v>
       </c>
       <c r="E161" t="n">
-        <v>-6.4030131826742</v>
+        <v>6.4676616915</v>
       </c>
       <c r="F161" t="n">
-        <v>4.97</v>
+        <v>6.42</v>
       </c>
       <c r="G161" t="n">
-        <v>0</v>
+        <v>-0.1555209953</v>
       </c>
       <c r="H161" t="n">
-        <v>0.307219662058372</v>
+        <v>9.1246290801</v>
       </c>
       <c r="I161" t="n">
-        <v>13.06</v>
+        <v>14.71</v>
       </c>
       <c r="J161" t="n">
-        <v>1.47630147630149</v>
+        <v>0.8916323731</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2016-05</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-4.20289855072464</v>
+        <v>-9.869999999999999</v>
       </c>
       <c r="C162" t="n">
-        <v>6.61</v>
+        <v>7.58</v>
       </c>
       <c r="D162" t="n">
-        <v>0.45592705167175</v>
+        <v>-0.26</v>
       </c>
       <c r="E162" t="n">
-        <v>-5.4368932038835</v>
+        <v>3.55</v>
       </c>
       <c r="F162" t="n">
-        <v>4.87</v>
+        <v>6.41</v>
       </c>
       <c r="G162" t="n">
-        <v>-2.01207243460763</v>
+        <v>-0.16</v>
       </c>
       <c r="H162" t="n">
-        <v>1.30368098159511</v>
+        <v>10.43</v>
       </c>
       <c r="I162" t="n">
-        <v>13.21</v>
+        <v>15.03</v>
       </c>
       <c r="J162" t="n">
-        <v>1.14854517611028</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2016-06</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-3.63901018922853</v>
+        <v>-10.8875739645</v>
       </c>
       <c r="C163" t="n">
-        <v>6.62</v>
+        <v>7.53</v>
       </c>
       <c r="D163" t="n">
-        <v>0.151285930408477</v>
+        <v>-0.6596306069</v>
       </c>
       <c r="E163" t="n">
-        <v>-5.89390962671905</v>
+        <v>1.7515923567</v>
       </c>
       <c r="F163" t="n">
-        <v>4.79</v>
+        <v>6.39</v>
       </c>
       <c r="G163" t="n">
-        <v>-1.64271047227926</v>
+        <v>-0.3120124805</v>
       </c>
       <c r="H163" t="n">
-        <v>3.92307692307692</v>
+        <v>11.8855465884</v>
       </c>
       <c r="I163" t="n">
-        <v>13.51</v>
+        <v>15.25</v>
       </c>
       <c r="J163" t="n">
-        <v>2.27100681302043</v>
+        <v>1.4637391883</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2016-07</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-1.76470588235294</v>
+        <v>-10.5952380952</v>
       </c>
       <c r="C164" t="n">
-        <v>6.68</v>
+        <v>7.51</v>
       </c>
       <c r="D164" t="n">
-        <v>0.90634441087613</v>
+        <v>-0.2656042497</v>
       </c>
       <c r="E164" t="n">
-        <v>-3.92156862745097</v>
+        <v>2.875399361</v>
       </c>
       <c r="F164" t="n">
-        <v>4.9</v>
+        <v>6.44</v>
       </c>
       <c r="G164" t="n">
-        <v>2.2964509394572</v>
+        <v>0.7824726135</v>
       </c>
       <c r="H164" t="n">
-        <v>5.04587155963303</v>
+        <v>13.0594277329</v>
       </c>
       <c r="I164" t="n">
-        <v>13.74</v>
+        <v>15.41</v>
       </c>
       <c r="J164" t="n">
-        <v>1.70244263508512</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="inlineStr">
-        <is>
-          <t>2016-08</t>
-        </is>
-      </c>
-      <c r="B165" t="n">
-        <v>0.594353640416045</v>
-      </c>
-      <c r="C165" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="D165" t="n">
-        <v>1.34730538922156</v>
-      </c>
-      <c r="E165" t="n">
-        <v>-2.97029702970296</v>
-      </c>
-      <c r="F165" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="G165" t="n">
-        <v>0</v>
-      </c>
-      <c r="H165" t="n">
-        <v>3.49013657056145</v>
-      </c>
-      <c r="I165" t="n">
-        <v>13.64</v>
-      </c>
-      <c r="J165" t="n">
-        <v>-0.727802037845706</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="inlineStr">
-        <is>
-          <t>2016-09</t>
-        </is>
-      </c>
-      <c r="B166" t="n">
-        <v>2.06185567010309</v>
-      </c>
-      <c r="C166" t="n">
-        <v>6.93</v>
-      </c>
-      <c r="D166" t="n">
-        <v>2.36336779911375</v>
-      </c>
-      <c r="E166" t="n">
-        <v>-4.06189555125725</v>
-      </c>
-      <c r="F166" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="G166" t="n">
-        <v>1.22448979591836</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1.854714064915</v>
-      </c>
-      <c r="I166" t="n">
-        <v>13.18</v>
-      </c>
-      <c r="J166" t="n">
-        <v>-3.37243401759531</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="inlineStr">
-        <is>
-          <t>2016-10</t>
-        </is>
-      </c>
-      <c r="B167" t="n">
-        <v>4.49101796407187</v>
-      </c>
-      <c r="C167" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="D167" t="n">
-        <v>0.721500721500718</v>
-      </c>
-      <c r="E167" t="n">
-        <v>-4.08560311284046</v>
-      </c>
-      <c r="F167" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-0.604838709677423</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1.72413793103449</v>
-      </c>
-      <c r="I167" t="n">
-        <v>12.98</v>
-      </c>
-      <c r="J167" t="n">
-        <v>-1.51745068285281</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="inlineStr">
-        <is>
-          <t>2016-11</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
-        <v>10.8527131782946</v>
-      </c>
-      <c r="C168" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="D168" t="n">
-        <v>2.4355300859599</v>
-      </c>
-      <c r="E168" t="n">
-        <v>-3.3203125</v>
-      </c>
-      <c r="F168" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="G168" t="n">
-        <v>0.405679513184594</v>
-      </c>
-      <c r="H168" t="n">
-        <v>2.2870662460568</v>
-      </c>
-      <c r="I168" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="J168" t="n">
-        <v>-0.077041602465329</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="inlineStr">
-        <is>
-          <t>2016-12</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>10.7361963190184</v>
-      </c>
-      <c r="C169" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="D169" t="n">
-        <v>0.979020979020959</v>
-      </c>
-      <c r="E169" t="n">
-        <v>-2.33463035019456</v>
-      </c>
-      <c r="F169" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="G169" t="n">
-        <v>1.4141414141414</v>
-      </c>
-      <c r="H169" t="n">
-        <v>2.69200316706255</v>
-      </c>
-      <c r="I169" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="J169" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="inlineStr">
-        <is>
-          <t>2017-01</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
-        <v>6.14035087719299</v>
-      </c>
-      <c r="C170" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="D170" t="n">
-        <v>0.554016620498615</v>
-      </c>
-      <c r="E170" t="n">
-        <v>1.19760479041918</v>
-      </c>
-      <c r="F170" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="G170" t="n">
-        <v>0.996015936255006</v>
-      </c>
-      <c r="H170" t="n">
-        <v>3.14712824547598</v>
-      </c>
-      <c r="I170" t="n">
-        <v>13.11</v>
-      </c>
-      <c r="J170" t="n">
-        <v>1.0794140323824</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="inlineStr">
-        <is>
-          <t>2017-02</t>
-        </is>
-      </c>
-      <c r="B171" t="n">
-        <v>8.88554216867472</v>
-      </c>
-      <c r="C171" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="D171" t="n">
-        <v>-0.413223140495859</v>
-      </c>
-      <c r="E171" t="n">
-        <v>2.40963855421685</v>
-      </c>
-      <c r="F171" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="G171" t="n">
-        <v>0.591715976331344</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1.80250783699061</v>
-      </c>
-      <c r="I171" t="n">
-        <v>12.99</v>
-      </c>
-      <c r="J171" t="n">
-        <v>-0.915331807780319</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="inlineStr">
-        <is>
-          <t>2017-03</t>
-        </is>
-      </c>
-      <c r="B172" t="n">
-        <v>9.13242009132421</v>
-      </c>
-      <c r="C172" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="D172" t="n">
-        <v>-0.82987551867221</v>
-      </c>
-      <c r="E172" t="n">
-        <v>2.81690140845072</v>
-      </c>
-      <c r="F172" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="G172" t="n">
-        <v>0.19607843137257</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>12.87</v>
-      </c>
-      <c r="J172" t="n">
-        <v>-0.923787528868374</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="inlineStr">
-        <is>
-          <t>2017-04</t>
-        </is>
-      </c>
-      <c r="B173" t="n">
-        <v>9.422492401215811</v>
-      </c>
-      <c r="C173" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="D173" t="n">
-        <v>0.418410041841</v>
-      </c>
-      <c r="E173" t="n">
-        <v>2.81690140845072</v>
-      </c>
-      <c r="F173" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="G173" t="n">
-        <v>0</v>
-      </c>
-      <c r="H173" t="n">
-        <v>-2.06738131699848</v>
-      </c>
-      <c r="I173" t="n">
-        <v>12.79</v>
-      </c>
-      <c r="J173" t="n">
-        <v>-0.621600621600621</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="inlineStr">
-        <is>
-          <t>2017-05</t>
-        </is>
-      </c>
-      <c r="B174" t="n">
-        <v>9.37972768532526</v>
-      </c>
-      <c r="C174" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="D174" t="n">
-        <v>0.416666666666671</v>
-      </c>
-      <c r="E174" t="n">
-        <v>6.16016427104722</v>
-      </c>
-      <c r="F174" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="G174" t="n">
-        <v>1.17416829745596</v>
-      </c>
-      <c r="H174" t="n">
-        <v>-3.70931112793339</v>
-      </c>
-      <c r="I174" t="n">
-        <v>12.72</v>
-      </c>
-      <c r="J174" t="n">
-        <v>-0.547302580140723</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="inlineStr">
-        <is>
-          <t>2017-06</t>
-        </is>
-      </c>
-      <c r="B175" t="n">
-        <v>9.3655589123867</v>
-      </c>
-      <c r="C175" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="D175" t="n">
-        <v>0.138312586445366</v>
-      </c>
-      <c r="E175" t="n">
-        <v>7.72442588726514</v>
-      </c>
-      <c r="F175" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-0.193423597678915</v>
-      </c>
-      <c r="H175" t="n">
-        <v>-6.51369356032568</v>
-      </c>
-      <c r="I175" t="n">
-        <v>12.63</v>
-      </c>
-      <c r="J175" t="n">
-        <v>-0.70754716981132</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="inlineStr">
-        <is>
-          <t>2017-07</t>
-        </is>
-      </c>
-      <c r="B176" t="n">
-        <v>6.73652694610777</v>
-      </c>
-      <c r="C176" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="D176" t="n">
-        <v>-1.51933701657458</v>
-      </c>
-      <c r="E176" t="n">
-        <v>6.73469387755101</v>
-      </c>
-      <c r="F176" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="G176" t="n">
-        <v>1.35658914728683</v>
-      </c>
-      <c r="H176" t="n">
-        <v>-8.73362445414848</v>
-      </c>
-      <c r="I176" t="n">
-        <v>12.54</v>
-      </c>
-      <c r="J176" t="n">
-        <v>-0.71258907363422</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="inlineStr">
-        <is>
-          <t>2017-08</t>
-        </is>
-      </c>
-      <c r="B177" t="n">
-        <v>4.72673559822748</v>
-      </c>
-      <c r="C177" t="n">
-        <v>7.09</v>
-      </c>
-      <c r="D177" t="n">
-        <v>-0.561009817671803</v>
-      </c>
-      <c r="E177" t="n">
-        <v>7.34693877551018</v>
-      </c>
-      <c r="F177" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="G177" t="n">
-        <v>0.573613766730404</v>
-      </c>
-      <c r="H177" t="n">
-        <v>-8.431085043988279</v>
-      </c>
-      <c r="I177" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="J177" t="n">
-        <v>-0.398724082934592</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="inlineStr">
-        <is>
-          <t>2017-09</t>
-        </is>
-      </c>
-      <c r="B178" t="n">
-        <v>3.75180375180378</v>
-      </c>
-      <c r="C178" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="D178" t="n">
-        <v>1.41043723554301</v>
-      </c>
-      <c r="E178" t="n">
-        <v>6.85483870967742</v>
-      </c>
-      <c r="F178" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="G178" t="n">
-        <v>0.7604562737642619</v>
-      </c>
-      <c r="H178" t="n">
-        <v>-6.37329286798179</v>
-      </c>
-      <c r="I178" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="J178" t="n">
-        <v>-1.20096076861489</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="inlineStr">
-        <is>
-          <t>2017-10</t>
-        </is>
-      </c>
-      <c r="B179" t="n">
-        <v>2.29226361031519</v>
-      </c>
-      <c r="C179" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="D179" t="n">
-        <v>-0.695410292072324</v>
-      </c>
-      <c r="E179" t="n">
-        <v>7.7079107505071</v>
-      </c>
-      <c r="F179" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="G179" t="n">
-        <v>0.188679245283012</v>
-      </c>
-      <c r="H179" t="n">
-        <v>-5.93220338983051</v>
-      </c>
-      <c r="I179" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="J179" t="n">
-        <v>-1.05348460291734</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="inlineStr">
-        <is>
-          <t>2017-11</t>
-        </is>
-      </c>
-      <c r="B180" t="n">
-        <v>-0.27972027972028</v>
-      </c>
-      <c r="C180" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="D180" t="n">
-        <v>-0.14005602240897</v>
-      </c>
-      <c r="E180" t="n">
-        <v>7.67676767676768</v>
-      </c>
-      <c r="F180" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="G180" t="n">
-        <v>0.376647834274962</v>
-      </c>
-      <c r="H180" t="n">
-        <v>-5.47417116422514</v>
-      </c>
-      <c r="I180" t="n">
-        <v>12.26</v>
-      </c>
-      <c r="J180" t="n">
-        <v>0.40950040950041</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="inlineStr">
-        <is>
-          <t>2017-12</t>
-        </is>
-      </c>
-      <c r="B181" t="n">
-        <v>-2.0775623268698</v>
-      </c>
-      <c r="C181" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="D181" t="n">
-        <v>-0.841514726507711</v>
-      </c>
-      <c r="E181" t="n">
-        <v>6.3745019920319</v>
-      </c>
-      <c r="F181" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="G181" t="n">
-        <v>0.187617260788002</v>
-      </c>
-      <c r="H181" t="n">
-        <v>-5.70547417116423</v>
-      </c>
-      <c r="I181" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="J181" t="n">
-        <v>-0.244698205546484</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="inlineStr">
-        <is>
-          <t>2018-01</t>
-        </is>
-      </c>
-      <c r="B182" t="n">
-        <v>-2.89256198347107</v>
-      </c>
-      <c r="C182" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="D182" t="n">
-        <v>-0.282885431400288</v>
-      </c>
-      <c r="E182" t="n">
-        <v>4.73372781065086</v>
-      </c>
-      <c r="F182" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-0.561797752808985</v>
-      </c>
-      <c r="H182" t="n">
-        <v>-7.17009916094584</v>
-      </c>
-      <c r="I182" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="J182" t="n">
-        <v>-0.490596892886359</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="inlineStr">
-        <is>
-          <t>2018-02</t>
-        </is>
-      </c>
-      <c r="B183" t="n">
-        <v>-2.48962655601662</v>
-      </c>
-      <c r="C183" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0</v>
-      </c>
-      <c r="E183" t="n">
-        <v>4.11764705882354</v>
-      </c>
-      <c r="F183" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="G183" t="n">
-        <v>0</v>
-      </c>
-      <c r="H183" t="n">
-        <v>-6.3125481139338</v>
-      </c>
-      <c r="I183" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="J183" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="inlineStr">
-        <is>
-          <t>2018-03</t>
-        </is>
-      </c>
-      <c r="B184" t="n">
-        <v>-1.25523012552301</v>
-      </c>
-      <c r="C184" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="D184" t="n">
-        <v>0.425531914893625</v>
-      </c>
-      <c r="E184" t="n">
-        <v>3.71819960861055</v>
-      </c>
-      <c r="F184" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-0.188323917137467</v>
-      </c>
-      <c r="H184" t="n">
-        <v>-6.13830613830612</v>
-      </c>
-      <c r="I184" t="n">
-        <v>12.08</v>
-      </c>
-      <c r="J184" t="n">
-        <v>-0.739523418241575</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="inlineStr">
-        <is>
-          <t>2018-04</t>
-        </is>
-      </c>
-      <c r="B185" t="n">
-        <v>-1.66666666666667</v>
-      </c>
-      <c r="C185" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="D185" t="n">
-        <v>0</v>
-      </c>
-      <c r="E185" t="n">
-        <v>4.10958904109589</v>
-      </c>
-      <c r="F185" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="G185" t="n">
-        <v>0.377358490566039</v>
-      </c>
-      <c r="H185" t="n">
-        <v>-6.17670054730257</v>
-      </c>
-      <c r="I185" t="n">
-        <v>12</v>
-      </c>
-      <c r="J185" t="n">
-        <v>-0.662251655629149</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="inlineStr">
-        <is>
-          <t>2018-05</t>
-        </is>
-      </c>
-      <c r="B186" t="n">
-        <v>-1.52143845089904</v>
-      </c>
-      <c r="C186" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="D186" t="n">
-        <v>0.5649717514124289</v>
-      </c>
-      <c r="E186" t="n">
-        <v>2.51450676982591</v>
-      </c>
-      <c r="F186" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-0.375939849624075</v>
-      </c>
-      <c r="H186" t="n">
-        <v>-6.28930817610063</v>
-      </c>
-      <c r="I186" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="J186" t="n">
-        <v>-0.666666666666671</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="inlineStr">
-        <is>
-          <t>2018-06</t>
-        </is>
-      </c>
-      <c r="B187" t="n">
-        <v>-0.690607734806619</v>
-      </c>
-      <c r="C187" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="D187" t="n">
-        <v>0.983146067415746</v>
-      </c>
-      <c r="E187" t="n">
-        <v>3.29457364341086</v>
-      </c>
-      <c r="F187" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="G187" t="n">
-        <v>0.566037735849065</v>
-      </c>
-      <c r="H187" t="n">
-        <v>-6.09659540775931</v>
-      </c>
-      <c r="I187" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="J187" t="n">
-        <v>-0.503355704697995</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="inlineStr">
-        <is>
-          <t>2018-07</t>
-        </is>
-      </c>
-      <c r="B188" t="n">
-        <v>0.70126227208975</v>
-      </c>
-      <c r="C188" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="D188" t="n">
-        <v>-0.139082058414473</v>
-      </c>
-      <c r="E188" t="n">
-        <v>1.91204588910132</v>
-      </c>
-      <c r="F188" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="G188" t="n">
-        <v>0</v>
-      </c>
-      <c r="H188" t="n">
-        <v>-5.18341307814991</v>
-      </c>
-      <c r="I188" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="J188" t="n">
-        <v>0.252951096121421</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="inlineStr">
-        <is>
-          <t>2018-08</t>
-        </is>
-      </c>
-      <c r="B189" t="n">
-        <v>0.564174894217203</v>
-      </c>
-      <c r="C189" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="D189" t="n">
-        <v>-0.6963788300835601</v>
-      </c>
-      <c r="E189" t="n">
-        <v>1.90114068441065</v>
-      </c>
-      <c r="F189" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="G189" t="n">
-        <v>0.562851782363964</v>
-      </c>
-      <c r="H189" t="n">
-        <v>-4.56365092073659</v>
-      </c>
-      <c r="I189" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="J189" t="n">
-        <v>0.252312867956263</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="inlineStr">
-        <is>
-          <t>2018-09</t>
-        </is>
-      </c>
-      <c r="B190" t="n">
-        <v>-0.834492350486798</v>
-      </c>
-      <c r="C190" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="D190" t="n">
-        <v>0</v>
-      </c>
-      <c r="E190" t="n">
-        <v>1.13207547169812</v>
-      </c>
-      <c r="F190" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="G190" t="n">
-        <v>0</v>
-      </c>
-      <c r="H190" t="n">
-        <v>-3.64667747163695</v>
-      </c>
-      <c r="I190" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="J190" t="n">
-        <v>-0.25167785234899</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="inlineStr">
-        <is>
-          <t>2018-10</t>
-        </is>
-      </c>
-      <c r="B191" t="n">
-        <v>-1.1204481792717</v>
-      </c>
-      <c r="C191" t="n">
-        <v>7.06</v>
-      </c>
-      <c r="D191" t="n">
-        <v>-0.9817671809256719</v>
-      </c>
-      <c r="E191" t="n">
-        <v>1.88323917137478</v>
-      </c>
-      <c r="F191" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="G191" t="n">
-        <v>0.932835820895519</v>
-      </c>
-      <c r="H191" t="n">
-        <v>-2.94840294840296</v>
-      </c>
-      <c r="I191" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="J191" t="n">
-        <v>-0.336417157275022</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="inlineStr">
-        <is>
-          <t>2018-11</t>
-        </is>
-      </c>
-      <c r="B192" t="n">
-        <v>-1.12201963534362</v>
-      </c>
-      <c r="C192" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="D192" t="n">
-        <v>-0.141643059490079</v>
-      </c>
-      <c r="E192" t="n">
-        <v>1.12570356472794</v>
-      </c>
-      <c r="F192" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-0.369685767097977</v>
-      </c>
-      <c r="H192" t="n">
-        <v>-3.42577487765089</v>
-      </c>
-      <c r="I192" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="J192" t="n">
-        <v>-0.08438818565400701</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="inlineStr">
-        <is>
-          <t>2018-12</t>
-        </is>
-      </c>
-      <c r="B193" t="n">
-        <v>0</v>
-      </c>
-      <c r="C193" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="D193" t="n">
-        <v>0.283687943262407</v>
-      </c>
-      <c r="E193" t="n">
-        <v>1.12359550561798</v>
-      </c>
-      <c r="F193" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="G193" t="n">
-        <v>0.185528756957339</v>
-      </c>
-      <c r="H193" t="n">
-        <v>-3.43417825020441</v>
-      </c>
-      <c r="I193" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="J193" t="n">
-        <v>-0.253378378378372</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="inlineStr">
-        <is>
-          <t>2019-01</t>
-        </is>
-      </c>
-      <c r="B194" t="n">
-        <v>-2.97872340425532</v>
-      </c>
-      <c r="C194" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="D194" t="n">
-        <v>-3.25318246110325</v>
-      </c>
-      <c r="E194" t="n">
-        <v>1.88323917137478</v>
-      </c>
-      <c r="F194" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="G194" t="n">
-        <v>0.185185185185176</v>
-      </c>
-      <c r="H194" t="n">
-        <v>-2.46507806080525</v>
-      </c>
-      <c r="I194" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="J194" t="n">
-        <v>0.508044030482637</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="inlineStr">
-        <is>
-          <t>2019-02</t>
-        </is>
-      </c>
-      <c r="B195" t="n">
-        <v>0.141843971631189</v>
-      </c>
-      <c r="C195" t="n">
-        <v>7.06</v>
-      </c>
-      <c r="D195" t="n">
-        <v>3.21637426900585</v>
-      </c>
-      <c r="E195" t="n">
-        <v>1.50659133709981</v>
-      </c>
-      <c r="F195" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-0.369685767097977</v>
-      </c>
-      <c r="H195" t="n">
-        <v>-2.87592440427279</v>
-      </c>
-      <c r="I195" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="J195" t="n">
-        <v>-0.421229991575387</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="inlineStr">
-        <is>
-          <t>2019-03</t>
-        </is>
-      </c>
-      <c r="B196" t="n">
-        <v>0</v>
-      </c>
-      <c r="C196" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="D196" t="n">
-        <v>0.283286118980186</v>
-      </c>
-      <c r="E196" t="n">
-        <v>1.13207547169812</v>
-      </c>
-      <c r="F196" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-0.556586270871975</v>
-      </c>
-      <c r="H196" t="n">
-        <v>-1.90397350993378</v>
-      </c>
-      <c r="I196" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="J196" t="n">
-        <v>0.25380710659897</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="inlineStr">
-        <is>
-          <t>2019-04</t>
-        </is>
-      </c>
-      <c r="B197" t="n">
-        <v>0.847457627118644</v>
-      </c>
-      <c r="C197" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="D197" t="n">
-        <v>0.847457627118644</v>
-      </c>
-      <c r="E197" t="n">
-        <v>0.751879699248121</v>
-      </c>
-      <c r="F197" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="G197" t="n">
-        <v>0</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1.83333333333333</v>
-      </c>
-      <c r="I197" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="J197" t="n">
-        <v>3.12236286919831</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="inlineStr">
-        <is>
-          <t>2019-05</t>
-        </is>
-      </c>
-      <c r="B198" t="n">
-        <v>0.280898876404478</v>
-      </c>
-      <c r="C198" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="D198" t="n">
-        <v>0</v>
-      </c>
-      <c r="E198" t="n">
-        <v>1.32075471698114</v>
-      </c>
-      <c r="F198" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="G198" t="n">
-        <v>0.18656716417911</v>
-      </c>
-      <c r="H198" t="n">
-        <v>4.9496644295302</v>
-      </c>
-      <c r="I198" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="J198" t="n">
-        <v>2.37315875613749</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="inlineStr">
-        <is>
-          <t>2019-06</t>
-        </is>
-      </c>
-      <c r="B199" t="n">
-        <v>0.139082058414459</v>
-      </c>
-      <c r="C199" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="D199" t="n">
-        <v>0.840336134453779</v>
-      </c>
-      <c r="E199" t="n">
-        <v>1.31332082551596</v>
-      </c>
-      <c r="F199" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="G199" t="n">
-        <v>0.558659217877107</v>
-      </c>
-      <c r="H199" t="n">
-        <v>6.15514333895449</v>
-      </c>
-      <c r="I199" t="n">
-        <v>12.59</v>
-      </c>
-      <c r="J199" t="n">
-        <v>0.639488409272587</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="inlineStr">
-        <is>
-          <t>2019-07</t>
-        </is>
-      </c>
-      <c r="B200" t="n">
-        <v>0</v>
-      </c>
-      <c r="C200" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="D200" t="n">
-        <v>-0.277777777777786</v>
-      </c>
-      <c r="E200" t="n">
-        <v>1.12570356472794</v>
-      </c>
-      <c r="F200" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-0.185185185185205</v>
-      </c>
-      <c r="H200" t="n">
-        <v>6.98065601345668</v>
-      </c>
-      <c r="I200" t="n">
-        <v>12.72</v>
-      </c>
-      <c r="J200" t="n">
-        <v>1.032565528197</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="inlineStr">
-        <is>
-          <t>2019-08</t>
-        </is>
-      </c>
-      <c r="B201" t="n">
-        <v>0.42075736325387</v>
-      </c>
-      <c r="C201" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="D201" t="n">
-        <v>-0.278551532033418</v>
-      </c>
-      <c r="E201" t="n">
-        <v>0</v>
-      </c>
-      <c r="F201" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-0.556586270871975</v>
-      </c>
-      <c r="H201" t="n">
-        <v>8.89261744966443</v>
-      </c>
-      <c r="I201" t="n">
-        <v>12.98</v>
-      </c>
-      <c r="J201" t="n">
-        <v>2.0440251572327</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="inlineStr">
-        <is>
-          <t>2019-09</t>
-        </is>
-      </c>
-      <c r="B202" t="n">
-        <v>-1.54277699859749</v>
-      </c>
-      <c r="C202" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="D202" t="n">
-        <v>-1.95530726256983</v>
-      </c>
-      <c r="E202" t="n">
-        <v>0.74626865671641</v>
-      </c>
-      <c r="F202" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="G202" t="n">
-        <v>0.74626865671641</v>
-      </c>
-      <c r="H202" t="n">
-        <v>7.14886459209418</v>
-      </c>
-      <c r="I202" t="n">
-        <v>12.74</v>
-      </c>
-      <c r="J202" t="n">
-        <v>-1.84899845916794</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="inlineStr">
-        <is>
-          <t>2019-10</t>
-        </is>
-      </c>
-      <c r="B203" t="n">
-        <v>-3.82436260623228</v>
-      </c>
-      <c r="C203" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="D203" t="n">
-        <v>-3.27635327635328</v>
-      </c>
-      <c r="E203" t="n">
-        <v>-0.184842883548981</v>
-      </c>
-      <c r="F203" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="G203" t="n">
-        <v>0</v>
-      </c>
-      <c r="H203" t="n">
-        <v>6.66666666666667</v>
-      </c>
-      <c r="I203" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="J203" t="n">
-        <v>-0.784929356357921</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="inlineStr">
-        <is>
-          <t>2019-11</t>
-        </is>
-      </c>
-      <c r="B204" t="n">
-        <v>-5.24822695035461</v>
-      </c>
-      <c r="C204" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="D204" t="n">
-        <v>-1.62002945508101</v>
-      </c>
-      <c r="E204" t="n">
-        <v>0.556586270871989</v>
-      </c>
-      <c r="F204" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="G204" t="n">
-        <v>0.370370370370352</v>
-      </c>
-      <c r="H204" t="n">
-        <v>9.206081081081081</v>
-      </c>
-      <c r="I204" t="n">
-        <v>12.93</v>
-      </c>
-      <c r="J204" t="n">
-        <v>2.29430379746836</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="inlineStr">
-        <is>
-          <t>2019-12</t>
-        </is>
-      </c>
-      <c r="B205" t="n">
-        <v>-5.0919377652051</v>
-      </c>
-      <c r="C205" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="D205" t="n">
-        <v>0.449101796407177</v>
-      </c>
-      <c r="E205" t="n">
-        <v>0.555555555555557</v>
-      </c>
-      <c r="F205" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="G205" t="n">
-        <v>0.184501845018431</v>
-      </c>
-      <c r="H205" t="n">
-        <v>9.906858594411521</v>
-      </c>
-      <c r="I205" t="n">
-        <v>12.98</v>
-      </c>
-      <c r="J205" t="n">
-        <v>0.386697602474868</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="inlineStr">
-        <is>
-          <t>2020-01</t>
-        </is>
-      </c>
-      <c r="B206" t="n">
-        <v>-0.730994152046776</v>
-      </c>
-      <c r="C206" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="D206" t="n">
-        <v>1.19225037257824</v>
-      </c>
-      <c r="E206" t="n">
-        <v>-0.369685767097977</v>
-      </c>
-      <c r="F206" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-0.7366482504604051</v>
-      </c>
-      <c r="H206" t="n">
-        <v>10.7834877843302</v>
-      </c>
-      <c r="I206" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="J206" t="n">
-        <v>1.30970724191064</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="inlineStr">
-        <is>
-          <t>2020-02</t>
-        </is>
-      </c>
-      <c r="B207" t="n">
-        <v>-1.55807365439092</v>
-      </c>
-      <c r="C207" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="D207" t="n">
-        <v>2.35640648011781</v>
-      </c>
-      <c r="E207" t="n">
-        <v>2.41187384044528</v>
-      </c>
-      <c r="F207" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="G207" t="n">
-        <v>2.41187384044528</v>
-      </c>
-      <c r="H207" t="n">
-        <v>12.7749576988156</v>
-      </c>
-      <c r="I207" t="n">
-        <v>13.33</v>
-      </c>
-      <c r="J207" t="n">
-        <v>1.36882129277566</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="inlineStr">
-        <is>
-          <t>2020-03</t>
-        </is>
-      </c>
-      <c r="B208" t="n">
-        <v>-2.11864406779661</v>
-      </c>
-      <c r="C208" t="n">
-        <v>6.93</v>
-      </c>
-      <c r="D208" t="n">
-        <v>-0.287769784172667</v>
-      </c>
-      <c r="E208" t="n">
-        <v>3.17164179104476</v>
-      </c>
-      <c r="F208" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="G208" t="n">
-        <v>0.181159420289873</v>
-      </c>
-      <c r="H208" t="n">
-        <v>14.1772151898734</v>
-      </c>
-      <c r="I208" t="n">
-        <v>13.53</v>
-      </c>
-      <c r="J208" t="n">
-        <v>1.50037509377343</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="inlineStr">
-        <is>
-          <t>2020-04</t>
-        </is>
-      </c>
-      <c r="B209" t="n">
-        <v>-4.06162464985994</v>
-      </c>
-      <c r="C209" t="n">
-        <v>6.85</v>
-      </c>
-      <c r="D209" t="n">
-        <v>-1.15440115440116</v>
-      </c>
-      <c r="E209" t="n">
-        <v>3.17164179104476</v>
-      </c>
-      <c r="F209" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="G209" t="n">
-        <v>0</v>
-      </c>
-      <c r="H209" t="n">
-        <v>16.20294599018</v>
-      </c>
-      <c r="I209" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="J209" t="n">
-        <v>4.9519586104952</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="inlineStr">
-        <is>
-          <t>2020-05</t>
-        </is>
-      </c>
-      <c r="B210" t="n">
-        <v>-4.06162464985994</v>
-      </c>
-      <c r="C210" t="n">
-        <v>6.85</v>
-      </c>
-      <c r="D210" t="n">
-        <v>0</v>
-      </c>
-      <c r="E210" t="n">
-        <v>2.42085661080074</v>
-      </c>
-      <c r="F210" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-0.542495479204348</v>
-      </c>
-      <c r="H210" t="n">
-        <v>14.4684252597922</v>
-      </c>
-      <c r="I210" t="n">
-        <v>14.32</v>
-      </c>
-      <c r="J210" t="n">
-        <v>0.845070422535215</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="inlineStr">
-        <is>
-          <t>2020-06</t>
-        </is>
-      </c>
-      <c r="B211" t="n">
-        <v>-4.86111111111111</v>
-      </c>
-      <c r="C211" t="n">
-        <v>6.85</v>
-      </c>
-      <c r="D211" t="n">
-        <v>0</v>
-      </c>
-      <c r="E211" t="n">
-        <v>2.40740740740742</v>
-      </c>
-      <c r="F211" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="G211" t="n">
-        <v>0.545454545454561</v>
-      </c>
-      <c r="H211" t="n">
-        <v>13.6616362192216</v>
-      </c>
-      <c r="I211" t="n">
-        <v>14.31</v>
-      </c>
-      <c r="J211" t="n">
-        <v>-0.06983240223463801</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="inlineStr">
-        <is>
-          <t>2020-07</t>
-        </is>
-      </c>
-      <c r="B212" t="n">
-        <v>-4.59610027855153</v>
-      </c>
-      <c r="C212" t="n">
-        <v>6.85</v>
-      </c>
-      <c r="D212" t="n">
-        <v>0</v>
-      </c>
-      <c r="E212" t="n">
-        <v>3.33951762523192</v>
-      </c>
-      <c r="F212" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="G212" t="n">
-        <v>0.723327305605778</v>
-      </c>
-      <c r="H212" t="n">
-        <v>12.1069182389937</v>
-      </c>
-      <c r="I212" t="n">
-        <v>14.26</v>
-      </c>
-      <c r="J212" t="n">
-        <v>-0.349406009783365</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="inlineStr">
-        <is>
-          <t>2020-08</t>
-        </is>
-      </c>
-      <c r="B213" t="n">
-        <v>-3.91061452513966</v>
-      </c>
-      <c r="C213" t="n">
-        <v>6.88</v>
-      </c>
-      <c r="D213" t="n">
-        <v>0.43795620437956</v>
-      </c>
-      <c r="E213" t="n">
-        <v>4.85074626865671</v>
-      </c>
-      <c r="F213" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="G213" t="n">
-        <v>0.89766606822262</v>
-      </c>
-      <c r="H213" t="n">
-        <v>10.5546995377504</v>
-      </c>
-      <c r="I213" t="n">
-        <v>14.35</v>
-      </c>
-      <c r="J213" t="n">
-        <v>0.63113604488079</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="inlineStr">
-        <is>
-          <t>2020-09</t>
-        </is>
-      </c>
-      <c r="B214" t="n">
-        <v>-1.99430199430199</v>
-      </c>
-      <c r="C214" t="n">
-        <v>6.88</v>
-      </c>
-      <c r="D214" t="n">
-        <v>0</v>
-      </c>
-      <c r="E214" t="n">
-        <v>4.25925925925925</v>
-      </c>
-      <c r="F214" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="G214" t="n">
-        <v>0.177935943060504</v>
-      </c>
-      <c r="H214" t="n">
-        <v>9.105180533751961</v>
-      </c>
-      <c r="I214" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="J214" t="n">
-        <v>-3.13588850174216</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="inlineStr">
-        <is>
-          <t>2020-10</t>
-        </is>
-      </c>
-      <c r="B215" t="n">
-        <v>2.06185567010309</v>
-      </c>
-      <c r="C215" t="n">
-        <v>6.93</v>
-      </c>
-      <c r="D215" t="n">
-        <v>0.726744186046503</v>
-      </c>
-      <c r="E215" t="n">
-        <v>4.99999999999999</v>
-      </c>
-      <c r="F215" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="G215" t="n">
-        <v>0.710479573712263</v>
-      </c>
-      <c r="H215" t="n">
-        <v>8.86075949367088</v>
-      </c>
-      <c r="I215" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="J215" t="n">
-        <v>-1.00719424460432</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="inlineStr">
-        <is>
-          <t>2020-11</t>
-        </is>
-      </c>
-      <c r="B216" t="n">
-        <v>2.54491017964071</v>
-      </c>
-      <c r="C216" t="n">
-        <v>6.85</v>
-      </c>
-      <c r="D216" t="n">
-        <v>-1.15440115440116</v>
-      </c>
-      <c r="E216" t="n">
-        <v>5.35055350553506</v>
-      </c>
-      <c r="F216" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="G216" t="n">
-        <v>0.705467372134038</v>
-      </c>
-      <c r="H216" t="n">
-        <v>6.34184068058778</v>
-      </c>
-      <c r="I216" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="J216" t="n">
-        <v>-0.072674418604649</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="inlineStr">
-        <is>
-          <t>2020-12</t>
-        </is>
-      </c>
-      <c r="B217" t="n">
-        <v>2.38450074515649</v>
-      </c>
-      <c r="C217" t="n">
-        <v>6.87</v>
-      </c>
-      <c r="D217" t="n">
-        <v>0.291970802919721</v>
-      </c>
-      <c r="E217" t="n">
-        <v>6.07734806629834</v>
-      </c>
-      <c r="F217" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="G217" t="n">
-        <v>0.8756567425569129</v>
-      </c>
-      <c r="H217" t="n">
-        <v>5.93220338983052</v>
-      </c>
-      <c r="I217" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="J217" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="inlineStr">
-        <is>
-          <t>2021-01</t>
-        </is>
-      </c>
-      <c r="B218" t="n">
-        <v>2.06185567010309</v>
-      </c>
-      <c r="C218" t="n">
-        <v>6.93</v>
-      </c>
-      <c r="D218" t="n">
-        <v>0.873362445414855</v>
-      </c>
-      <c r="E218" t="n">
-        <v>7.60667903525048</v>
-      </c>
-      <c r="F218" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="G218" t="n">
-        <v>0.694444444444443</v>
-      </c>
-      <c r="H218" t="n">
-        <v>5.55133079847909</v>
-      </c>
-      <c r="I218" t="n">
-        <v>13.88</v>
-      </c>
-      <c r="J218" t="n">
-        <v>0.945454545454567</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="inlineStr">
-        <is>
-          <t>2021-02</t>
-        </is>
-      </c>
-      <c r="B219" t="n">
-        <v>-0.719424460431654</v>
-      </c>
-      <c r="C219" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="D219" t="n">
-        <v>-0.432900432900425</v>
-      </c>
-      <c r="E219" t="n">
-        <v>4.52898550724639</v>
-      </c>
-      <c r="F219" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-0.517241379310349</v>
-      </c>
-      <c r="H219" t="n">
-        <v>4.87621905476369</v>
-      </c>
-      <c r="I219" t="n">
-        <v>13.98</v>
-      </c>
-      <c r="J219" t="n">
-        <v>0.720461095100859</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="inlineStr">
-        <is>
-          <t>2021-03</t>
-        </is>
-      </c>
-      <c r="B220" t="n">
-        <v>0.432900432900425</v>
-      </c>
-      <c r="C220" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="D220" t="n">
-        <v>0.869565217391298</v>
-      </c>
-      <c r="E220" t="n">
-        <v>4.70162748643762</v>
-      </c>
-      <c r="F220" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="G220" t="n">
-        <v>0.346620450606579</v>
-      </c>
-      <c r="H220" t="n">
-        <v>3.32594235033261</v>
-      </c>
-      <c r="I220" t="n">
-        <v>13.98</v>
-      </c>
-      <c r="J220" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="inlineStr">
-        <is>
-          <t>2021-04</t>
-        </is>
-      </c>
-      <c r="B221" t="n">
-        <v>7.5912408759124</v>
-      </c>
-      <c r="C221" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="D221" t="n">
-        <v>5.89080459770115</v>
-      </c>
-      <c r="E221" t="n">
-        <v>4.70162748643762</v>
-      </c>
-      <c r="F221" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="G221" t="n">
-        <v>0</v>
-      </c>
-      <c r="H221" t="n">
-        <v>-1.83098591549296</v>
-      </c>
-      <c r="I221" t="n">
-        <v>13.94</v>
-      </c>
-      <c r="J221" t="n">
-        <v>-0.286123032904158</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="inlineStr">
-        <is>
-          <t>2021-05</t>
-        </is>
-      </c>
-      <c r="B222" t="n">
-        <v>7.15328467153284</v>
-      </c>
-      <c r="C222" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="D222" t="n">
-        <v>-0.407055630936227</v>
-      </c>
-      <c r="E222" t="n">
-        <v>7.09090909090908</v>
-      </c>
-      <c r="F222" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="G222" t="n">
-        <v>1.72711571675302</v>
-      </c>
-      <c r="H222" t="n">
-        <v>-3.28212290502793</v>
-      </c>
-      <c r="I222" t="n">
-        <v>13.85</v>
-      </c>
-      <c r="J222" t="n">
-        <v>-0.645624103299852</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="inlineStr">
-        <is>
-          <t>2021-06</t>
-        </is>
-      </c>
-      <c r="B223" t="n">
-        <v>7.15328467153284</v>
-      </c>
-      <c r="C223" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="D223" t="n">
-        <v>0</v>
-      </c>
-      <c r="E223" t="n">
-        <v>7.05244122965641</v>
-      </c>
-      <c r="F223" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="G223" t="n">
-        <v>0.509337860780974</v>
-      </c>
-      <c r="H223" t="n">
-        <v>-3.84346610761706</v>
-      </c>
-      <c r="I223" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="J223" t="n">
-        <v>-0.649819494584833</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="inlineStr">
-        <is>
-          <t>2021-07</t>
-        </is>
-      </c>
-      <c r="B224" t="n">
-        <v>8.467153284671539</v>
-      </c>
-      <c r="C224" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="D224" t="n">
-        <v>1.22615803814713</v>
-      </c>
-      <c r="E224" t="n">
-        <v>5.74506283662477</v>
-      </c>
-      <c r="F224" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-0.506756756756772</v>
-      </c>
-      <c r="H224" t="n">
-        <v>-4.20757363253857</v>
-      </c>
-      <c r="I224" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="J224" t="n">
-        <v>-0.726744186046517</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="inlineStr">
-        <is>
-          <t>2021-08</t>
-        </is>
-      </c>
-      <c r="B225" t="n">
-        <v>7.4127906977</v>
-      </c>
-      <c r="C225" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="D225" t="n">
-        <v>-0.5383580081</v>
-      </c>
-      <c r="E225" t="n">
-        <v>4.8042704626</v>
-      </c>
-      <c r="F225" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="G225" t="n">
-        <v>0</v>
-      </c>
-      <c r="H225" t="n">
-        <v>-5.0174216028</v>
-      </c>
-      <c r="I225" t="n">
-        <v>13.63</v>
-      </c>
-      <c r="J225" t="n">
-        <v>-0.2196193265</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="inlineStr">
-        <is>
-          <t>2021-09</t>
-        </is>
-      </c>
-      <c r="B226" t="n">
-        <v>7.9941860465</v>
-      </c>
-      <c r="C226" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="D226" t="n">
-        <v>0.5412719892</v>
-      </c>
-      <c r="E226" t="n">
-        <v>5.3285968028</v>
-      </c>
-      <c r="F226" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="G226" t="n">
-        <v>0.6791171477</v>
-      </c>
-      <c r="H226" t="n">
-        <v>-1.7985611511</v>
-      </c>
-      <c r="I226" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="J226" t="n">
-        <v>0.1467351431</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="inlineStr">
-        <is>
-          <t>2021-10</t>
-        </is>
-      </c>
-      <c r="B227" t="n">
-        <v>11.8326118326</v>
-      </c>
-      <c r="C227" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="D227" t="n">
-        <v>4.3068640646</v>
-      </c>
-      <c r="E227" t="n">
-        <v>5.114638448</v>
-      </c>
-      <c r="F227" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="G227" t="n">
-        <v>0.5059021922</v>
-      </c>
-      <c r="H227" t="n">
-        <v>-0.8720930233</v>
-      </c>
-      <c r="I227" t="n">
-        <v>13.64</v>
-      </c>
-      <c r="J227" t="n">
-        <v>-0.07326007330000001</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="inlineStr">
-        <is>
-          <t>2021-11</t>
-        </is>
-      </c>
-      <c r="B228" t="n">
-        <v>15.6204379562</v>
-      </c>
-      <c r="C228" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="D228" t="n">
-        <v>2.1935483871</v>
-      </c>
-      <c r="E228" t="n">
-        <v>5.6042031524</v>
-      </c>
-      <c r="F228" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="G228" t="n">
-        <v>1.1744966443</v>
-      </c>
-      <c r="H228" t="n">
-        <v>-0.3636363636</v>
-      </c>
-      <c r="I228" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="J228" t="n">
-        <v>0.4398826979</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="inlineStr">
-        <is>
-          <t>2021-12</t>
-        </is>
-      </c>
-      <c r="B229" t="n">
-        <v>16.5938864629</v>
-      </c>
-      <c r="C229" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="D229" t="n">
-        <v>1.1363636364</v>
-      </c>
-      <c r="E229" t="n">
-        <v>4.3402777778</v>
-      </c>
-      <c r="F229" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-0.3316749585</v>
-      </c>
-      <c r="H229" t="n">
-        <v>-0.9454545455</v>
-      </c>
-      <c r="I229" t="n">
-        <v>13.62</v>
-      </c>
-      <c r="J229" t="n">
-        <v>-0.5839416058</v>
+        <v>1.0491803279</v>
       </c>
     </row>
   </sheetData>
